--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,50 +464,55 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>post_url_original</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>author_name</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>comment_text</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>created_time_processed</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>fecha_comentario</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>hora_comentario</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>likes_count</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>replies_count</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>is_reply</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>author_url</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>created_time_raw</t>
         </is>
@@ -515,7 +520,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -529,47 +534,52 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Me fascina el de Vainilla 😋</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>45959.07354166666</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>45959</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>01:45:54</t>
-        </is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxcqjbj6hewouq4erdjwpz28vvypdfgsq1aymlcfuov7kymfqomceduqfmlvy2sl</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>El mejor Probiótico</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>45971.41180555556</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>45971</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>09:53:00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0qRtJkzapjGbpB6PbSo13kaWEhFkcHnJfTxGdUiSrc7otqZZbhSouMeypTdAyVz6vl?comment_id=2029984121170617', 'id': 'Y29tbWVudDoxMjYwODA5MTY5NDI0NjUzXzIwMjk5ODQxMjExNzA2MTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTE2OTQyNDY1M18yMDI5OTg0MTIxMTcwNjE3', 'date': '2025-10-29T01:45:54.000Z', 'text': 'Me fascina el de Vainilla 😋', 'profileUrl': 'https://www.facebook.com/patricia.mercado.37625843', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/474858966_970941714962829_3249291076544783340_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1LBf3DgiQ4sQ7kNvwEj6e5f&amp;_nc_oc=Adl0xjfOG8lMov2nBLrvCf-UAjbsbwtONICR_DHcReTWnbE_B5tcbX22gMA36fgpNYA&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=vuh6lXhQIP7c3FuZ3Jn2Ug&amp;oh=00_Afe2tMf1Ka05vNSg7uP-uHRo7iP2kNFVHFniPOo0ahuzCA&amp;oe=69080BD3', 'profileId': 'pfbid029AeLn8BoyLTsxF5SVieZno1SZTL3g1waspD7D6p4tciNE13pEcvhujow4tEMLSkGl', 'profileName': 'Patricia Mercado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809169424653', 'postTitle': 'Hacer mercado es cuidarte y cuidar lo que te comes.\nToma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/'}</t>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05fjxGFwdSm9gnGjDTpS7ejdLwDb3KFAjFNPSBb1n9yPFohcVxqFFDWbNnUWGgAjCl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico', 'profileUrl': 'https://www.facebook.com/edgardo.h.torres', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/329949499_706379934324681_6066166283931111198_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=nKSouesrjcIQ7kNvwFnKX7A&amp;_nc_oc=Adn_R5LP05oa2LTQR-ZgUeiO7pDNXNfYKq9JM1gUlgJd40yb1__eqFoeiMf9cxE1ZP8&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=dAY9KYGh_8YKeBTx6BVwpQ&amp;oh=00_AfgtUdGrBN9b9zQ89NAyuxfQFgqPqlwGhn8Fty2Im0XWuQ&amp;oe=691AFB58', 'profileId': '562425066', 'profileName': 'Edgardo Henriquez Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1268598918645678', 'postTitle': 'La alimentación y su lonchera son parte de la rutina escolar. Incluye Yox con Defensis rico en vitamina C y Zinc que ayudan a reforzar su sistema de defensas. Dale uno cada mañana. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl'}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -583,47 +593,52 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sería perfecto sin azúcar</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>45959.12414351852</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>45959</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>02:58:46</t>
-        </is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxcqjbj6hewouq4erdjwpz28vvypdfgsq1aymlcfuov7kymfqomceduqfmlvy2sl</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Igual que los anteriores</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>45969.86098379629</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>45969</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>20:39:49</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0qRtJkzapjGbpB6PbSo13kaWEhFkcHnJfTxGdUiSrc7otqZZbhSouMeypTdAyVz6vl?comment_id=1348588736815786', 'id': 'Y29tbWVudDoxMjYwODA5MTY5NDI0NjUzXzEzNDg1ODg3MzY4MTU3ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTE2OTQyNDY1M18xMzQ4NTg4NzM2ODE1Nzg2', 'date': '2025-10-29T02:58:46.000Z', 'text': 'Sería perfecto sin azúcar', 'profileUrl': 'https://www.facebook.com/omar.caberamoreno', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/391616913_10229488674154916_3074313784069236130_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9Dc2rPLh9wcQ7kNvwHdiBaX&amp;_nc_oc=AdnfS_6buGUdJH6UlQvquVp7YVUCGBf2nziI0KB3l8CUQU0pniNB9ekMXTOXZjRXLuw&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=vuh6lXhQIP7c3FuZ3Jn2Ug&amp;oh=00_Afexppafu-dJBTIm95Hqyj3XI04Vf1CD18DvTmnbr5rV2w&amp;oe=6908062D', 'profileId': 'pfbid0qBUAo1KULxBQRUjARTegrpBSgKnM4t7WbfNXidYf79AGwmHxd54V7XcPDFLezoG9l', 'profileName': 'Omar Cabera Moreno', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809169424653', 'postTitle': 'Hacer mercado es cuidarte y cuidar lo que te comes.\nToma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/'}</t>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05fjxGFwdSm9gnGjDTpS7ejdLwDb3KFAjFNPSBb1n9yPFohcVxqFFDWbNnUWGgAjCl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteriores', 'profileUrl': 'https://www.facebook.com/people/Ismael-Rodriguez/pfbid0RkaPFuwoS5PvbgwKK6ngfGhJrUanmEwpSpFgFoMTCEhaa5rxu1DxmbW9m2CVm7c1l/', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/326923818_6002114453180357_1471721040400209943_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lPeXKxMl43cQ7kNvwF32weM&amp;_nc_oc=AdnQZkbkctt4tfLbF6ohJc3QieIPyawG56n8mLLRvxz5K10gz-D4TBLNjk_T9PwRZLE&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=dAY9KYGh_8YKeBTx6BVwpQ&amp;oh=00_Afjp68TbtSA6ovXUvLp67BfsDd1F7sYTFgzDWLS0YOsBeQ&amp;oe=691AE93A', 'profileId': 'pfbid0RkaPFuwoS5PvbgwKK6ngfGhJrUanmEwpSpFgFoMTCEhaa5rxu1DxmbW9m2CVm7c1l', 'profileName': 'Ismael Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1268598918645678', 'postTitle': 'La alimentación y su lonchera son parte de la rutina escolar. Incluye Yox con Defensis rico en vitamina C y Zinc que ayudan a reforzar su sistema de defensas. Dale uno cada mañana. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl'}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -637,47 +652,52 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Este no es levy?</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>45959.06515046296</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>45959</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>01:33:49</t>
-        </is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxcqjbj6hewouq4erdjwpz28vvypdfgsq1aymlcfuov7kymfqomceduqfmlvy2sl</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>45969.62359953704</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>45969</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>14:57:59</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0qRtJkzapjGbpB6PbSo13kaWEhFkcHnJfTxGdUiSrc7otqZZbhSouMeypTdAyVz6vl?comment_id=1042719824568765', 'id': 'Y29tbWVudDoxMjYwODA5MTY5NDI0NjUzXzEwNDI3MTk4MjQ1Njg3NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTE2OTQyNDY1M18xMDQyNzE5ODI0NTY4NzY1', 'date': '2025-10-29T01:33:49.000Z', 'text': 'Este no es levy?', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/321493827_6126216284068746_2099740004517525238_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5NUK5w0ArhEQ7kNvwGcyPsP&amp;_nc_oc=AdkxxJ2s_oyGwJevRwvZ16gLrok6ICv8LW1TAFdKMY-Ir6Pc9-eVRW9DRTDaRVabKSQ&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=vuh6lXhQIP7c3FuZ3Jn2Ug&amp;oh=00_AferZcoJ1eNUdc0_aMoZaym8_bM4hj8VbHtqLdeu4IDrqw&amp;oe=6907F8D7', 'profileId': 'pfbid0tW7hVkK1pwwHNwtdjmpwLSbkuHKhgVG8wpbPzSLdC6cw6hJrW3DMF2tDxgo7z92Cl', 'profileName': 'Maria Fernanda Villafañe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809169424653', 'postTitle': 'Hacer mercado es cuidarte y cuidar lo que te comes.\nToma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/'}</t>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05fjxGFwdSm9gnGjDTpS7ejdLwDb3KFAjFNPSBb1n9yPFohcVxqFFDWbNnUWGgAjCl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse', 'profileUrl': 'https://www.facebook.com/judith.alexandra.baez.manotas', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/494024229_633122043055352_7880059244206662785_n.jpg?stp=c0.0.617.617a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=NuCLOyyCQbMQ7kNvwGORXW5&amp;_nc_oc=AdlWTBMly9gHGAYLxEIgcOMOVPy3eYdsK5MY9G6ieQsND82WvCgLVFi3v6ypxZ7Y0Mo&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=dAY9KYGh_8YKeBTx6BVwpQ&amp;oh=00_AfjAR-UfcAOpj6eKFDGi1yxjmVhlO9eMGxxyPr_BE8rB5Q&amp;oe=691AF70E', 'profileId': 'pfbid02KhgcGkirzRpgAwRhLBzFEY8By7owzednM75qsBYtEN7t4ti9Mn6ywiyD8Jn9TTg7l', 'profileName': 'Judith Alexandra Baez Manotas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1268598918645678', 'postTitle': 'La alimentación y su lonchera son parte de la rutina escolar. Incluye Yox con Defensis rico en vitamina C y Zinc que ayudan a reforzar su sistema de defensas. Dale uno cada mañana. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl'}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -691,33 +711,50 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808222758081/</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>https://www.facebook.com/100064867445065/posts/1260808139424756</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260808139424756/</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>0</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Acepto</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>45959.47121527778</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>11:18:33</t>
+        </is>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808222758081/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808139424756/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid025KXbi5GFJyiWb2shXz1dngY4fQiwwxenhfuNr16MavM6TpGESvJ2uKEu9S6Euv5yl?comment_id=850108050787140', 'id': 'Y29tbWVudDoxMjYwODA5MDQ5NDI0NjY1Xzg1MDEwODA1MDc4NzE0MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTA0OTQyNDY2NV84NTAxMDgwNTA3ODcxNDA=', 'date': '2025-10-29T11:18:33.000Z', 'text': 'Acepto', 'profileUrl': 'https://www.facebook.com/aideth.luna.2025', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/241214040_1436244446754525_1403762865664656098_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mEe9zIVP12UQ7kNvwHZyXZt&amp;_nc_oc=Adn0LfFbozKMlJvLD_WnasSh--ijBCBm_PpBE00xr2HUnNs02iFoZNLpg3rJN0A2lCk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=RrL6uwPnxLsk3OlptzlM6g&amp;oh=00_AfcCw8wOy-HSEkI5joHdr9nfSxtv4SbBlSoxMwsqxFEXhg&amp;oe=6908141E', 'profileId': 'pfbid02uyqzxrX31D7tLkUzPpxR9gh9sHSCewRaySXnuGGBDBFkRhs4PHG5GNUSfgGKsDbsl', 'profileName': 'Aideth Luna', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809049424665', 'postTitle': 'Toma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas. Búscalo en tu supermercado favorito. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808139424756/'}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -731,47 +768,50 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808139424756/</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Acepto</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>45959.47121527778</v>
-      </c>
-      <c r="H6" s="3" t="n">
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sería perfecto sin azúcar</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>45959.12414351852</v>
+      </c>
+      <c r="I6" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>11:18:33</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>02:58:46</t>
         </is>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808139424756/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid025KXbi5GFJyiWb2shXz1dngY4fQiwwxenhfuNr16MavM6TpGESvJ2uKEu9S6Euv5yl?comment_id=850108050787140', 'id': 'Y29tbWVudDoxMjYwODA5MDQ5NDI0NjY1Xzg1MDEwODA1MDc4NzE0MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTA0OTQyNDY2NV84NTAxMDgwNTA3ODcxNDA=', 'date': '2025-10-29T11:18:33.000Z', 'text': 'Acepto', 'profileUrl': 'https://www.facebook.com/aideth.luna.2025', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/241214040_1436244446754525_1403762865664656098_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mEe9zIVP12UQ7kNvwHZyXZt&amp;_nc_oc=Adn0LfFbozKMlJvLD_WnasSh--ijBCBm_PpBE00xr2HUnNs02iFoZNLpg3rJN0A2lCk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=RrL6uwPnxLsk3OlptzlM6g&amp;oh=00_AfcCw8wOy-HSEkI5joHdr9nfSxtv4SbBlSoxMwsqxFEXhg&amp;oe=6908141E', 'profileId': 'pfbid02uyqzxrX31D7tLkUzPpxR9gh9sHSCewRaySXnuGGBDBFkRhs4PHG5GNUSfgGKsDbsl', 'profileName': 'Aideth Luna', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809049424665', 'postTitle': 'Toma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas. Búscalo en tu supermercado favorito. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808139424756/'}</t>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0qRtJkzapjGbpB6PbSo13kaWEhFkcHnJfTxGdUiSrc7otqZZbhSouMeypTdAyVz6vl?comment_id=1348588736815786', 'id': 'Y29tbWVudDoxMjYwODA5MTY5NDI0NjUzXzEzNDg1ODg3MzY4MTU3ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTE2OTQyNDY1M18xMzQ4NTg4NzM2ODE1Nzg2', 'date': '2025-10-29T02:58:46.000Z', 'text': 'Sería perfecto sin azúcar', 'profileUrl': 'https://www.facebook.com/omar.caberamoreno', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/391616913_10229488674154916_3074313784069236130_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9Dc2rPLh9wcQ7kNvwHdiBaX&amp;_nc_oc=AdnfS_6buGUdJH6UlQvquVp7YVUCGBf2nziI0KB3l8CUQU0pniNB9ekMXTOXZjRXLuw&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=vuh6lXhQIP7c3FuZ3Jn2Ug&amp;oh=00_Afexppafu-dJBTIm95Hqyj3XI04Vf1CD18DvTmnbr5rV2w&amp;oe=6908062D', 'profileId': 'pfbid0qBUAo1KULxBQRUjARTegrpBSgKnM4t7WbfNXidYf79AGwmHxd54V7XcPDFLezoG9l', 'profileName': 'Omar Cabera Moreno', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809169424653', 'postTitle': 'Hacer mercado es cuidarte y cuidar lo que te comes.\nToma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/'}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -785,33 +825,50 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1261357616036475/</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>0</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Me fascina el de Vainilla 😋</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>45959.07354166666</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>01:45:54</t>
+        </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1261357616036475/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0qRtJkzapjGbpB6PbSo13kaWEhFkcHnJfTxGdUiSrc7otqZZbhSouMeypTdAyVz6vl?comment_id=2029984121170617', 'id': 'Y29tbWVudDoxMjYwODA5MTY5NDI0NjUzXzIwMjk5ODQxMjExNzA2MTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTE2OTQyNDY1M18yMDI5OTg0MTIxMTcwNjE3', 'date': '2025-10-29T01:45:54.000Z', 'text': 'Me fascina el de Vainilla 😋', 'profileUrl': 'https://www.facebook.com/patricia.mercado.37625843', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/474858966_970941714962829_3249291076544783340_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1LBf3DgiQ4sQ7kNvwEj6e5f&amp;_nc_oc=Adl0xjfOG8lMov2nBLrvCf-UAjbsbwtONICR_DHcReTWnbE_B5tcbX22gMA36fgpNYA&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=vuh6lXhQIP7c3FuZ3Jn2Ug&amp;oh=00_Afe2tMf1Ka05vNSg7uP-uHRo7iP2kNFVHFniPOo0ahuzCA&amp;oe=69080BD3', 'profileId': 'pfbid029AeLn8BoyLTsxF5SVieZno1SZTL3g1waspD7D6p4tciNE13pEcvhujow4tEMLSkGl', 'profileName': 'Patricia Mercado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809169424653', 'postTitle': 'Hacer mercado es cuidarte y cuidar lo que te comes.\nToma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/'}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -825,27 +882,44 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1261357606036476/</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>0</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Este no es levy?</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>45959.06515046296</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>01:33:49</t>
+        </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1261357606036476/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0qRtJkzapjGbpB6PbSo13kaWEhFkcHnJfTxGdUiSrc7otqZZbhSouMeypTdAyVz6vl?comment_id=1042719824568765', 'id': 'Y29tbWVudDoxMjYwODA5MTY5NDI0NjUzXzEwNDI3MTk4MjQ1Njg3NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTE2OTQyNDY1M18xMDQyNzE5ODI0NTY4NzY1', 'date': '2025-10-29T01:33:49.000Z', 'text': 'Este no es levy?', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/321493827_6126216284068746_2099740004517525238_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5NUK5w0ArhEQ7kNvwGcyPsP&amp;_nc_oc=AdkxxJ2s_oyGwJevRwvZ16gLrok6ICv8LW1TAFdKMY-Ir6Pc9-eVRW9DRTDaRVabKSQ&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=vuh6lXhQIP7c3FuZ3Jn2Ug&amp;oh=00_AferZcoJ1eNUdc0_aMoZaym8_bM4hj8VbHtqLdeu4IDrqw&amp;oe=6907F8D7', 'profileId': 'pfbid0tW7hVkK1pwwHNwtdjmpwLSbkuHKhgVG8wpbPzSLdC6cw6hJrW3DMF2tDxgo7z92Cl', 'profileName': 'Maria Fernanda Villafañe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809169424653', 'postTitle': 'Hacer mercado es cuidarte y cuidar lo que te comes.\nToma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/'}</t>
         </is>
       </c>
     </row>
@@ -865,39 +939,42 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260822012756702</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>https://www.facebook.com/100064867445065/posts/1260822012756702/</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Hola Prima como estás</t>
         </is>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="H9" s="2" t="n">
         <v>45959.06054398148</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="I9" s="2" t="n">
         <v>45959</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>01:27:11</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
         <is>
           <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260822012756702/', 'commentUrl': 'https://www.facebook.com/reel/712516344573526/?comment_id=1146379767042504', 'id': 'Y29tbWVudDoxMjYwODIyMzg2MDg5OTk4XzExNDYzNzk3NjcwNDI1MDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgyMjM4NjA4OTk5OF8xMTQ2Mzc5NzY3MDQyNTA0', 'date': '2025-10-29T01:27:11.000Z', 'text': 'Hola Prima como estás', 'profileUrl': 'https://www.facebook.com/narda.uribe.1', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.6435-1/140635256_1030289400825191_8725920208160148472_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=F5GsPsgYmg0Q7kNvwEKNIfg&amp;_nc_oc=Adn8rO_TkZ1vjRhKotInq4Cp6nEfWH_xLy6S1GBHDQdVNGy_sFHuWZ4iFmsNdQj3rUQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=E4O7m6fyOdxCIr1d0O_baQ&amp;oh=00_AfdM6teEm1B4p63YSeYqww7XuIcHcwHN8rZ0uIb-QerEAw&amp;oe=69299B07', 'profileId': 'pfbid0364LZjXrqdytircM8hTd1FS7F5wPAGhDP7ZQBMgF4DNWDWS2XoQrGAJZaakoaMYjZl', 'profileName': 'Narda Uribe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260822386089998', 'postTitle': '👉 Llévalo en tu próxima compra.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260822012756702/'}</t>
         </is>
@@ -905,11 +982,11 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -919,41 +996,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXX191jDIm/</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>https://www.facebook.com/100064867445065/posts/1260808222758081</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260808222758081/</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>0</v>
       </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.instagram.com/p/DQXX191jDIm/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808222758081/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -963,41 +1041,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXXzQWDDZV/</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>https://www.facebook.com/100064867445065/posts/1261357616036475</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1261357616036475/</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>0</v>
       </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.instagram.com/p/DQXXzQWDDZV/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1261357616036475/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1007,37 +1086,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXX1g-jBg9/</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>https://www.facebook.com/100064867445065/posts/1261357606036476</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1261357606036476/</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
         <v>0</v>
       </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.instagram.com/p/DQXX1g-jBg9/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1261357606036476/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1051,37 +1131,42 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXaV3BjM4E/</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>https://www.instagram.com/p/dqxx191jdim</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXX191jDIm/</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
         <v>0</v>
       </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="inlineStr">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>https://instagram.com/</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.instagram.com/p/DQXaV3BjM4E/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQXX191jDIm/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1095,31 +1180,1341 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQMhtk1DGri/</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>https://www.instagram.com/p/dqxxzqwddzv</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXXzQWDDZV/</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
         <v>0</v>
       </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="inlineStr">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>https://instagram.com/</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQXXzQWDDZV/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dqxx1g-jbg9</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXX1g-jBg9/</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQXX1g-jBg9/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dqxav3bjm4e</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXaV3BjM4E/</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQXaV3BjM4E/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dqmhtk1dgri</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQMhtk1DGri/</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
         <is>
           <t>{'url': 'https://www.instagram.com/p/DQMhtk1DGri/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/zsynjcxps</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjCxPs/</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/zsynjxvkv</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjXVkv/</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/zsynj9uqf</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynj9uqF/</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/zsynjbfup</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjbfUp/</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/zsynjhru3</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjHRu3/</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/zsynjktgn</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjktgn/</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/zsynj9yyk</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynj9YYK/</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/zsynjag7c</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjAG7C/</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>9</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/zsy8enmrw</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSy8ENMRW/</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.facebook.com/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>17</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwgrutbkvjcm1vteawq4o8z9qw6zaxw4b1xohbbqgxs1q2wygscrorq8otk7ccyl</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>18</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid029ht2zwy4t8tumlilrjgj4ris4nppcrzprrzjeigt59gb1qdofubputcd9nuevefwl</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>19</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02bwqcswuatn4elybstsigh58asmr2r7guz8lgt3phumpxe2cvtis4ps1fyv6qmaqul</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02phkxpjn3dz7gnsrftgsfv5kygnetavzsrkiknhj1myudcjauvharaafn7igoh2nvl</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>21</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02xvfblpzfxhmk2vtzr5grmpap75sercqshtdxidvefdkpwqbycnt8e2ddtbhk5srul</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>23</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0j6jtae3wz43drqg4gg7thmv8qeaa3ekmduqml3rju1aywxatp6gjy8atwoaslf35l</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>24</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0meadgnbtfkofjnq5rvq68rcsyxxbrfrtgq4p8gabkrndktcanp82nqnz8tehzrogl</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>25</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0iwsjqtlczetbgz7lshbidgqybxc7cbhgfhgdvet1r5cb8awgjuv9xxtewvqazegnl</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0iWSJqTLCzeTBgz7LSHbiDGqYbxC7cbhgfHGDVEt1r5CB8AwgjuV9xxtEwvQaZEGnl</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0iWSJqTLCzeTBgz7LSHbiDGqYbxC7cbhgfHGDVEt1r5CB8AwgjuV9xxtEwvQaZEGnl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>26</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/848611304195556</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/848611304195556/</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/reel/848611304195556/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>27</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1135439792045406</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1135439792045406/</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/reel/1135439792045406/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>28</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dqheagojc-y</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHeaGojC-y/</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQHeaGojC-y/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>29</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dqhedmrjhlo</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQHedmRjHLo/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>30</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dqhez1ljoge</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHeZ1LjOge/</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQHeZ1LjOge/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dq9jdxajp_x</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jdxAjP_x/</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQ9jdxAjP_x/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dq9jtytjd2n</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jtyTjD2N/</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQ9jtyTjD2N/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dq9jvtndgnb</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jvTNDGNb/</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQ9jvTNDGNb/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1134,7 +2529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1180,34 +2575,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>3</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>tiktok</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808222758081/</t>
+          <t>https://vt.tiktok.com/zsynjcxps</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1215,7 +2608,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1224,34 +2617,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808139424756/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808222758081</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>tiktok</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1261357616036475/</t>
+          <t>https://vt.tiktok.com/zsynjxvkv</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1259,7 +2650,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1268,7 +2659,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1261357606036476/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808139424756</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -1280,43 +2671,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>tiktok</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260822012756702/</t>
+          <t>https://vt.tiktok.com/zsynj9uqf</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXX191jDIm/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1261357616036475</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1324,20 +2713,20 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>tiktok</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXXzQWDDZV/</t>
+          <t>https://vt.tiktok.com/zsynjbfup</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1345,20 +2734,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXX1g-jBg9/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1261357606036476</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1366,20 +2755,20 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>tiktok</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXaV3BjM4E/</t>
+          <t>https://vt.tiktok.com/zsynjhru3</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,22 +2776,591 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQMhtk1DGri/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260822012756702</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/zsynjktgn</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dqxx191jdim</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/zsynj9yyk</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dqxxzqwddzv</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/zsynjag7c</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dqxx1g-jbg9</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/zsy8enmrw</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dqxav3bjm4e</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dqmhtk1dgri</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>17</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwgrutbkvjcm1vteawq4o8z9qw6zaxw4b1xohbbqgxs1q2wygscrorq8otk7ccyl</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>18</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid029ht2zwy4t8tumlilrjgj4ris4nppcrzprrzjeigt59gb1qdofubputcd9nuevefwl</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>19</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02bwqcswuatn4elybstsigh58asmr2r7guz8lgt3phumpxe2cvtis4ps1fyv6qmaqul</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>20</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02phkxpjn3dz7gnsrftgsfv5kygnetavzsrkiknhj1myudcjauvharaafn7igoh2nvl</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>21</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02xvfblpzfxhmk2vtzr5grmpap75sercqshtdxidvefdkpwqbycnt8e2ddtbhk5srul</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>22</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxcqjbj6hewouq4erdjwpz28vvypdfgsq1aymlcfuov7kymfqomceduqfmlvy2sl</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0j6jtae3wz43drqg4gg7thmv8qeaa3ekmduqml3rju1aywxatp6gjy8atwoaslf35l</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>24</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0meadgnbtfkofjnq5rvq68rcsyxxbrfrtgq4p8gabkrndktcanp82nqnz8tehzrogl</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>25</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0iwsjqtlczetbgz7lshbidgqybxc7cbhgfhgdvet1r5cb8awgjuv9xxtewvqazegnl</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>26</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/848611304195556</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>27</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1135439792045406</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>28</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dqheagojc-y</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>29</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dqhedmrjhlo</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>30</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dqhez1ljoge</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dq9jdxajp_x</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dq9jtytjd2n</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/dq9jvtndgnb</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -520,7 +520,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -534,29 +534,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxcqjbj6hewouq4erdjwpz28vvypdfgsq1aymlcfuov7kymfqomceduqfmlvy2sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0meadgnbtfkofjnq5rvq68rcsyxxbrfrtgq4p8gabkrndktcanp82nqnz8tehzrogl</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>El mejor Probiótico</t>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45971.41180555556</v>
+        <v>45974.1278125</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>45971</v>
+        <v>45974</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>09:53:00</t>
+          <t>03:04:03</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -573,7 +573,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05fjxGFwdSm9gnGjDTpS7ejdLwDb3KFAjFNPSBb1n9yPFohcVxqFFDWbNnUWGgAjCl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico', 'profileUrl': 'https://www.facebook.com/edgardo.h.torres', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/329949499_706379934324681_6066166283931111198_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=nKSouesrjcIQ7kNvwFnKX7A&amp;_nc_oc=Adn_R5LP05oa2LTQR-ZgUeiO7pDNXNfYKq9JM1gUlgJd40yb1__eqFoeiMf9cxE1ZP8&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=dAY9KYGh_8YKeBTx6BVwpQ&amp;oh=00_AfgtUdGrBN9b9zQ89NAyuxfQFgqPqlwGhn8Fty2Im0XWuQ&amp;oe=691AFB58', 'profileId': '562425066', 'profileName': 'Edgardo Henriquez Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1268598918645678', 'postTitle': 'La alimentación y su lonchera son parte de la rutina escolar. Incluye Yox con Defensis rico en vitamina C y Zinc que ayudan a reforzar su sistema de defensas. Dale uno cada mañana. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EDLWsCZzDuD3r8eoirqM7kED9jHGqkoUQCaTS3nfRRxyvu2qV5HNqqJACer11jkcl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una amiga mía jejejeje', 'profileUrl': 'https://www.facebook.com/miguelangel.zunigamunoz', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/488936583_2114981389005338_3192753571819941645_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wEs1fO67ExUQ7kNvwG_3huf&amp;_nc_oc=AdlHk08RUGFKGstj19G0yaX9H_H8ThdTfpiyP0Ry1QUAYUjCNosSQVqeQ1zupDeRApw&amp;_nc_zt=24&amp;_nc_ht=scontent-sea1-1.xx&amp;_nc_gid=Mp95fIDBVqrqlnL2wVZJyw&amp;oh=00_Afhn1CEZ9BU3QAibsdQoOsnA48xh1FIF21wEgATIUR98Vg&amp;oe=691BBE34', 'profileId': 'pfbid0dm7rDmHUQvhJG3WR3F9QsT4tcsFEszEW5ShzowLfPQhd6z3rmSjai8iu21LrgBhWl', 'profileName': 'Miguel Angel Zuñiga Muñoz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1268598781979025', 'postTitle': 'En temporada de cole: Cuadernos ✅, amigos ✅, Lochera ✅ y Yox con Defensis rico en vitamina C y Zinc que ayudan a reforzar su sistema de defensas.👉 Dáselo todos los días. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl'}</t>
         </is>
       </c>
     </row>
@@ -604,24 +604,22 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Igual que los anteriores</t>
+          <t>El mejor Probiótico</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45969.86098379629</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>45969</v>
+        <v>45971.41180555556</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>45971</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>20:39:49</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>09:53:00</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -632,7 +630,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05fjxGFwdSm9gnGjDTpS7ejdLwDb3KFAjFNPSBb1n9yPFohcVxqFFDWbNnUWGgAjCl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteriores', 'profileUrl': 'https://www.facebook.com/people/Ismael-Rodriguez/pfbid0RkaPFuwoS5PvbgwKK6ngfGhJrUanmEwpSpFgFoMTCEhaa5rxu1DxmbW9m2CVm7c1l/', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/326923818_6002114453180357_1471721040400209943_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lPeXKxMl43cQ7kNvwF32weM&amp;_nc_oc=AdnQZkbkctt4tfLbF6ohJc3QieIPyawG56n8mLLRvxz5K10gz-D4TBLNjk_T9PwRZLE&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=dAY9KYGh_8YKeBTx6BVwpQ&amp;oh=00_Afjp68TbtSA6ovXUvLp67BfsDd1F7sYTFgzDWLS0YOsBeQ&amp;oe=691AE93A', 'profileId': 'pfbid0RkaPFuwoS5PvbgwKK6ngfGhJrUanmEwpSpFgFoMTCEhaa5rxu1DxmbW9m2CVm7c1l', 'profileName': 'Ismael Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1268598918645678', 'postTitle': 'La alimentación y su lonchera son parte de la rutina escolar. Incluye Yox con Defensis rico en vitamina C y Zinc que ayudan a reforzar su sistema de defensas. Dale uno cada mañana. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05fjxGFwdSm9gnGjDTpS7ejdLwDb3KFAjFNPSBb1n9yPFohcVxqFFDWbNnUWGgAjCl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico', 'profileUrl': 'https://www.facebook.com/edgardo.h.torres', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/329949499_706379934324681_6066166283931111198_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=nKSouesrjcIQ7kNvwFnKX7A&amp;_nc_oc=Adn_R5LP05oa2LTQR-ZgUeiO7pDNXNfYKq9JM1gUlgJd40yb1__eqFoeiMf9cxE1ZP8&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=dAY9KYGh_8YKeBTx6BVwpQ&amp;oh=00_AfgtUdGrBN9b9zQ89NAyuxfQFgqPqlwGhn8Fty2Im0XWuQ&amp;oe=691AFB58', 'profileId': '562425066', 'profileName': 'Edgardo Henriquez Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1268598918645678', 'postTitle': 'La alimentación y su lonchera son parte de la rutina escolar. Incluye Yox con Defensis rico en vitamina C y Zinc que ayudan a reforzar su sistema de defensas. Dale uno cada mañana. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl'}</t>
         </is>
       </c>
     </row>
@@ -663,24 +661,22 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
+          <t>Igual que los anteriores</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45969.62359953704</v>
-      </c>
-      <c r="I4" s="3" t="n">
+        <v>45969.86098379629</v>
+      </c>
+      <c r="I4" s="2" t="n">
         <v>45969</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>14:57:59</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>20:39:49</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -691,13 +687,13 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05fjxGFwdSm9gnGjDTpS7ejdLwDb3KFAjFNPSBb1n9yPFohcVxqFFDWbNnUWGgAjCl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse', 'profileUrl': 'https://www.facebook.com/judith.alexandra.baez.manotas', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/494024229_633122043055352_7880059244206662785_n.jpg?stp=c0.0.617.617a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=NuCLOyyCQbMQ7kNvwGORXW5&amp;_nc_oc=AdlWTBMly9gHGAYLxEIgcOMOVPy3eYdsK5MY9G6ieQsND82WvCgLVFi3v6ypxZ7Y0Mo&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=dAY9KYGh_8YKeBTx6BVwpQ&amp;oh=00_AfjAR-UfcAOpj6eKFDGi1yxjmVhlO9eMGxxyPr_BE8rB5Q&amp;oe=691AF70E', 'profileId': 'pfbid02KhgcGkirzRpgAwRhLBzFEY8By7owzednM75qsBYtEN7t4ti9Mn6ywiyD8Jn9TTg7l', 'profileName': 'Judith Alexandra Baez Manotas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1268598918645678', 'postTitle': 'La alimentación y su lonchera son parte de la rutina escolar. Incluye Yox con Defensis rico en vitamina C y Zinc que ayudan a reforzar su sistema de defensas. Dale uno cada mañana. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05fjxGFwdSm9gnGjDTpS7ejdLwDb3KFAjFNPSBb1n9yPFohcVxqFFDWbNnUWGgAjCl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteriores', 'profileUrl': 'https://www.facebook.com/people/Ismael-Rodriguez/pfbid0RkaPFuwoS5PvbgwKK6ngfGhJrUanmEwpSpFgFoMTCEhaa5rxu1DxmbW9m2CVm7c1l/', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/326923818_6002114453180357_1471721040400209943_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lPeXKxMl43cQ7kNvwF32weM&amp;_nc_oc=AdnQZkbkctt4tfLbF6ohJc3QieIPyawG56n8mLLRvxz5K10gz-D4TBLNjk_T9PwRZLE&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=dAY9KYGh_8YKeBTx6BVwpQ&amp;oh=00_Afjp68TbtSA6ovXUvLp67BfsDd1F7sYTFgzDWLS0YOsBeQ&amp;oe=691AE93A', 'profileId': 'pfbid0RkaPFuwoS5PvbgwKK6ngfGhJrUanmEwpSpFgFoMTCEhaa5rxu1DxmbW9m2CVm7c1l', 'profileName': 'Ismael Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1268598918645678', 'postTitle': 'La alimentación y su lonchera son parte de la rutina escolar. Incluye Yox con Defensis rico en vitamina C y Zinc que ayudan a reforzar su sistema de defensas. Dale uno cada mañana. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl'}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -711,29 +707,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808139424756</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxcqjbj6hewouq4erdjwpz28vvypdfgsq1aymlcfuov7kymfqomceduqfmlvy2sl</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808139424756/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Acepto</t>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45959.47121527778</v>
+        <v>45969.62359953704</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>45959</v>
+        <v>45969</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>11:18:33</t>
+          <t>14:57:59</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -748,13 +744,13 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808139424756/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid025KXbi5GFJyiWb2shXz1dngY4fQiwwxenhfuNr16MavM6TpGESvJ2uKEu9S6Euv5yl?comment_id=850108050787140', 'id': 'Y29tbWVudDoxMjYwODA5MDQ5NDI0NjY1Xzg1MDEwODA1MDc4NzE0MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTA0OTQyNDY2NV84NTAxMDgwNTA3ODcxNDA=', 'date': '2025-10-29T11:18:33.000Z', 'text': 'Acepto', 'profileUrl': 'https://www.facebook.com/aideth.luna.2025', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/241214040_1436244446754525_1403762865664656098_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mEe9zIVP12UQ7kNvwHZyXZt&amp;_nc_oc=Adn0LfFbozKMlJvLD_WnasSh--ijBCBm_PpBE00xr2HUnNs02iFoZNLpg3rJN0A2lCk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=RrL6uwPnxLsk3OlptzlM6g&amp;oh=00_AfcCw8wOy-HSEkI5joHdr9nfSxtv4SbBlSoxMwsqxFEXhg&amp;oe=6908141E', 'profileId': 'pfbid02uyqzxrX31D7tLkUzPpxR9gh9sHSCewRaySXnuGGBDBFkRhs4PHG5GNUSfgGKsDbsl', 'profileName': 'Aideth Luna', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809049424665', 'postTitle': 'Toma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas. Búscalo en tu supermercado favorito. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808139424756/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05fjxGFwdSm9gnGjDTpS7ejdLwDb3KFAjFNPSBb1n9yPFohcVxqFFDWbNnUWGgAjCl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse', 'profileUrl': 'https://www.facebook.com/judith.alexandra.baez.manotas', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/494024229_633122043055352_7880059244206662785_n.jpg?stp=c0.0.617.617a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=NuCLOyyCQbMQ7kNvwGORXW5&amp;_nc_oc=AdlWTBMly9gHGAYLxEIgcOMOVPy3eYdsK5MY9G6ieQsND82WvCgLVFi3v6ypxZ7Y0Mo&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=dAY9KYGh_8YKeBTx6BVwpQ&amp;oh=00_AfjAR-UfcAOpj6eKFDGi1yxjmVhlO9eMGxxyPr_BE8rB5Q&amp;oe=691AF70E', 'profileId': 'pfbid02KhgcGkirzRpgAwRhLBzFEY8By7owzednM75qsBYtEN7t4ti9Mn6ywiyD8Jn9TTg7l', 'profileName': 'Judith Alexandra Baez Manotas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1268598918645678', 'postTitle': 'La alimentación y su lonchera son parte de la rutina escolar. Incluye Yox con Defensis rico en vitamina C y Zinc que ayudan a reforzar su sistema de defensas. Dale uno cada mañana. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl'}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -768,29 +764,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808236091413</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808139424756</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808139424756/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sería perfecto sin azúcar</t>
+          <t>Acepto</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45959.12414351852</v>
+        <v>45959.47121527778</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>45959</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>02:58:46</t>
+          <t>11:18:33</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -805,7 +801,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0qRtJkzapjGbpB6PbSo13kaWEhFkcHnJfTxGdUiSrc7otqZZbhSouMeypTdAyVz6vl?comment_id=1348588736815786', 'id': 'Y29tbWVudDoxMjYwODA5MTY5NDI0NjUzXzEzNDg1ODg3MzY4MTU3ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTE2OTQyNDY1M18xMzQ4NTg4NzM2ODE1Nzg2', 'date': '2025-10-29T02:58:46.000Z', 'text': 'Sería perfecto sin azúcar', 'profileUrl': 'https://www.facebook.com/omar.caberamoreno', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/391616913_10229488674154916_3074313784069236130_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9Dc2rPLh9wcQ7kNvwHdiBaX&amp;_nc_oc=AdnfS_6buGUdJH6UlQvquVp7YVUCGBf2nziI0KB3l8CUQU0pniNB9ekMXTOXZjRXLuw&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=vuh6lXhQIP7c3FuZ3Jn2Ug&amp;oh=00_Afexppafu-dJBTIm95Hqyj3XI04Vf1CD18DvTmnbr5rV2w&amp;oe=6908062D', 'profileId': 'pfbid0qBUAo1KULxBQRUjARTegrpBSgKnM4t7WbfNXidYf79AGwmHxd54V7XcPDFLezoG9l', 'profileName': 'Omar Cabera Moreno', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809169424653', 'postTitle': 'Hacer mercado es cuidarte y cuidar lo que te comes.\nToma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808139424756/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid025KXbi5GFJyiWb2shXz1dngY4fQiwwxenhfuNr16MavM6TpGESvJ2uKEu9S6Euv5yl?comment_id=850108050787140', 'id': 'Y29tbWVudDoxMjYwODA5MDQ5NDI0NjY1Xzg1MDEwODA1MDc4NzE0MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTA0OTQyNDY2NV84NTAxMDgwNTA3ODcxNDA=', 'date': '2025-10-29T11:18:33.000Z', 'text': 'Acepto', 'profileUrl': 'https://www.facebook.com/aideth.luna.2025', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/241214040_1436244446754525_1403762865664656098_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mEe9zIVP12UQ7kNvwHZyXZt&amp;_nc_oc=Adn0LfFbozKMlJvLD_WnasSh--ijBCBm_PpBE00xr2HUnNs02iFoZNLpg3rJN0A2lCk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=RrL6uwPnxLsk3OlptzlM6g&amp;oh=00_AfcCw8wOy-HSEkI5joHdr9nfSxtv4SbBlSoxMwsqxFEXhg&amp;oe=6908141E', 'profileId': 'pfbid02uyqzxrX31D7tLkUzPpxR9gh9sHSCewRaySXnuGGBDBFkRhs4PHG5GNUSfgGKsDbsl', 'profileName': 'Aideth Luna', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809049424665', 'postTitle': 'Toma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas. Búscalo en tu supermercado favorito. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808139424756/'}</t>
         </is>
       </c>
     </row>
@@ -836,18 +832,18 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Me fascina el de Vainilla 😋</t>
+          <t>Sería perfecto sin azúcar</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45959.07354166666</v>
+        <v>45959.12414351852</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>45959</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>01:45:54</t>
+          <t>02:58:46</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -862,7 +858,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0qRtJkzapjGbpB6PbSo13kaWEhFkcHnJfTxGdUiSrc7otqZZbhSouMeypTdAyVz6vl?comment_id=2029984121170617', 'id': 'Y29tbWVudDoxMjYwODA5MTY5NDI0NjUzXzIwMjk5ODQxMjExNzA2MTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTE2OTQyNDY1M18yMDI5OTg0MTIxMTcwNjE3', 'date': '2025-10-29T01:45:54.000Z', 'text': 'Me fascina el de Vainilla 😋', 'profileUrl': 'https://www.facebook.com/patricia.mercado.37625843', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/474858966_970941714962829_3249291076544783340_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1LBf3DgiQ4sQ7kNvwEj6e5f&amp;_nc_oc=Adl0xjfOG8lMov2nBLrvCf-UAjbsbwtONICR_DHcReTWnbE_B5tcbX22gMA36fgpNYA&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=vuh6lXhQIP7c3FuZ3Jn2Ug&amp;oh=00_Afe2tMf1Ka05vNSg7uP-uHRo7iP2kNFVHFniPOo0ahuzCA&amp;oe=69080BD3', 'profileId': 'pfbid029AeLn8BoyLTsxF5SVieZno1SZTL3g1waspD7D6p4tciNE13pEcvhujow4tEMLSkGl', 'profileName': 'Patricia Mercado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809169424653', 'postTitle': 'Hacer mercado es cuidarte y cuidar lo que te comes.\nToma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0qRtJkzapjGbpB6PbSo13kaWEhFkcHnJfTxGdUiSrc7otqZZbhSouMeypTdAyVz6vl?comment_id=1348588736815786', 'id': 'Y29tbWVudDoxMjYwODA5MTY5NDI0NjUzXzEzNDg1ODg3MzY4MTU3ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTE2OTQyNDY1M18xMzQ4NTg4NzM2ODE1Nzg2', 'date': '2025-10-29T02:58:46.000Z', 'text': 'Sería perfecto sin azúcar', 'profileUrl': 'https://www.facebook.com/omar.caberamoreno', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/391616913_10229488674154916_3074313784069236130_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9Dc2rPLh9wcQ7kNvwHdiBaX&amp;_nc_oc=AdnfS_6buGUdJH6UlQvquVp7YVUCGBf2nziI0KB3l8CUQU0pniNB9ekMXTOXZjRXLuw&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=vuh6lXhQIP7c3FuZ3Jn2Ug&amp;oh=00_Afexppafu-dJBTIm95Hqyj3XI04Vf1CD18DvTmnbr5rV2w&amp;oe=6908062D', 'profileId': 'pfbid0qBUAo1KULxBQRUjARTegrpBSgKnM4t7WbfNXidYf79AGwmHxd54V7XcPDFLezoG9l', 'profileName': 'Omar Cabera Moreno', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809169424653', 'postTitle': 'Hacer mercado es cuidarte y cuidar lo que te comes.\nToma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/'}</t>
         </is>
       </c>
     </row>
@@ -893,18 +889,18 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Este no es levy?</t>
+          <t>Me fascina el de Vainilla 😋</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45959.06515046296</v>
+        <v>45959.07354166666</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>45959</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>01:33:49</t>
+          <t>01:45:54</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -919,13 +915,13 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0qRtJkzapjGbpB6PbSo13kaWEhFkcHnJfTxGdUiSrc7otqZZbhSouMeypTdAyVz6vl?comment_id=1042719824568765', 'id': 'Y29tbWVudDoxMjYwODA5MTY5NDI0NjUzXzEwNDI3MTk4MjQ1Njg3NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTE2OTQyNDY1M18xMDQyNzE5ODI0NTY4NzY1', 'date': '2025-10-29T01:33:49.000Z', 'text': 'Este no es levy?', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/321493827_6126216284068746_2099740004517525238_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5NUK5w0ArhEQ7kNvwGcyPsP&amp;_nc_oc=AdkxxJ2s_oyGwJevRwvZ16gLrok6ICv8LW1TAFdKMY-Ir6Pc9-eVRW9DRTDaRVabKSQ&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=vuh6lXhQIP7c3FuZ3Jn2Ug&amp;oh=00_AferZcoJ1eNUdc0_aMoZaym8_bM4hj8VbHtqLdeu4IDrqw&amp;oe=6907F8D7', 'profileId': 'pfbid0tW7hVkK1pwwHNwtdjmpwLSbkuHKhgVG8wpbPzSLdC6cw6hJrW3DMF2tDxgo7z92Cl', 'profileName': 'Maria Fernanda Villafañe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809169424653', 'postTitle': 'Hacer mercado es cuidarte y cuidar lo que te comes.\nToma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0qRtJkzapjGbpB6PbSo13kaWEhFkcHnJfTxGdUiSrc7otqZZbhSouMeypTdAyVz6vl?comment_id=2029984121170617', 'id': 'Y29tbWVudDoxMjYwODA5MTY5NDI0NjUzXzIwMjk5ODQxMjExNzA2MTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTE2OTQyNDY1M18yMDI5OTg0MTIxMTcwNjE3', 'date': '2025-10-29T01:45:54.000Z', 'text': 'Me fascina el de Vainilla 😋', 'profileUrl': 'https://www.facebook.com/patricia.mercado.37625843', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/474858966_970941714962829_3249291076544783340_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1LBf3DgiQ4sQ7kNvwEj6e5f&amp;_nc_oc=Adl0xjfOG8lMov2nBLrvCf-UAjbsbwtONICR_DHcReTWnbE_B5tcbX22gMA36fgpNYA&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=vuh6lXhQIP7c3FuZ3Jn2Ug&amp;oh=00_Afe2tMf1Ka05vNSg7uP-uHRo7iP2kNFVHFniPOo0ahuzCA&amp;oe=69080BD3', 'profileId': 'pfbid029AeLn8BoyLTsxF5SVieZno1SZTL3g1waspD7D6p4tciNE13pEcvhujow4tEMLSkGl', 'profileName': 'Patricia Mercado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809169424653', 'postTitle': 'Hacer mercado es cuidarte y cuidar lo que te comes.\nToma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/'}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -939,29 +935,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260822012756702</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260822012756702/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hola Prima como estás</t>
+          <t>Este no es levy?</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45959.06054398148</v>
+        <v>45959.06515046296</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>45959</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>01:27:11</t>
+          <t>01:33:49</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -976,13 +972,13 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260822012756702/', 'commentUrl': 'https://www.facebook.com/reel/712516344573526/?comment_id=1146379767042504', 'id': 'Y29tbWVudDoxMjYwODIyMzg2MDg5OTk4XzExNDYzNzk3NjcwNDI1MDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgyMjM4NjA4OTk5OF8xMTQ2Mzc5NzY3MDQyNTA0', 'date': '2025-10-29T01:27:11.000Z', 'text': 'Hola Prima como estás', 'profileUrl': 'https://www.facebook.com/narda.uribe.1', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.6435-1/140635256_1030289400825191_8725920208160148472_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=F5GsPsgYmg0Q7kNvwEKNIfg&amp;_nc_oc=Adn8rO_TkZ1vjRhKotInq4Cp6nEfWH_xLy6S1GBHDQdVNGy_sFHuWZ4iFmsNdQj3rUQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=E4O7m6fyOdxCIr1d0O_baQ&amp;oh=00_AfdM6teEm1B4p63YSeYqww7XuIcHcwHN8rZ0uIb-QerEAw&amp;oe=69299B07', 'profileId': 'pfbid0364LZjXrqdytircM8hTd1FS7F5wPAGhDP7ZQBMgF4DNWDWS2XoQrGAJZaakoaMYjZl', 'profileName': 'Narda Uribe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260822386089998', 'postTitle': '👉 Llévalo en tu próxima compra.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260822012756702/'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0qRtJkzapjGbpB6PbSo13kaWEhFkcHnJfTxGdUiSrc7otqZZbhSouMeypTdAyVz6vl?comment_id=1042719824568765', 'id': 'Y29tbWVudDoxMjYwODA5MTY5NDI0NjUzXzEwNDI3MTk4MjQ1Njg3NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTE2OTQyNDY1M18xMDQyNzE5ODI0NTY4NzY1', 'date': '2025-10-29T01:33:49.000Z', 'text': 'Este no es levy?', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/321493827_6126216284068746_2099740004517525238_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5NUK5w0ArhEQ7kNvwGcyPsP&amp;_nc_oc=AdkxxJ2s_oyGwJevRwvZ16gLrok6ICv8LW1TAFdKMY-Ir6Pc9-eVRW9DRTDaRVabKSQ&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=vuh6lXhQIP7c3FuZ3Jn2Ug&amp;oh=00_AferZcoJ1eNUdc0_aMoZaym8_bM4hj8VbHtqLdeu4IDrqw&amp;oe=6907F8D7', 'profileId': 'pfbid0tW7hVkK1pwwHNwtdjmpwLSbkuHKhgVG8wpbPzSLdC6cw6hJrW3DMF2tDxgo7z92Cl', 'profileName': 'Maria Fernanda Villafañe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809169424653', 'postTitle': 'Hacer mercado es cuidarte y cuidar lo que te comes.\nToma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/'}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -996,19 +992,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808222758081</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260822012756702</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808222758081/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260822012756702/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hola Prima como estás</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>45959.06054398148</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>01:27:11</t>
+        </is>
+      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1021,13 +1029,13 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808222758081/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260822012756702/', 'commentUrl': 'https://www.facebook.com/reel/712516344573526/?comment_id=1146379767042504', 'id': 'Y29tbWVudDoxMjYwODIyMzg2MDg5OTk4XzExNDYzNzk3NjcwNDI1MDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgyMjM4NjA4OTk5OF8xMTQ2Mzc5NzY3MDQyNTA0', 'date': '2025-10-29T01:27:11.000Z', 'text': 'Hola Prima como estás', 'profileUrl': 'https://www.facebook.com/narda.uribe.1', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.6435-1/140635256_1030289400825191_8725920208160148472_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=F5GsPsgYmg0Q7kNvwEKNIfg&amp;_nc_oc=Adn8rO_TkZ1vjRhKotInq4Cp6nEfWH_xLy6S1GBHDQdVNGy_sFHuWZ4iFmsNdQj3rUQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=E4O7m6fyOdxCIr1d0O_baQ&amp;oh=00_AfdM6teEm1B4p63YSeYqww7XuIcHcwHN8rZ0uIb-QerEAw&amp;oe=69299B07', 'profileId': 'pfbid0364LZjXrqdytircM8hTd1FS7F5wPAGhDP7ZQBMgF4DNWDWS2XoQrGAJZaakoaMYjZl', 'profileName': 'Narda Uribe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260822386089998', 'postTitle': '👉 Llévalo en tu próxima compra.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260822012756702/'}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1041,12 +1049,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1261357616036475</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808222758081</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1261357616036475/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808222758081/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1066,13 +1074,13 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1261357616036475/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808222758081/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1086,12 +1094,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1261357606036476</t>
+          <t>https://www.facebook.com/100064867445065/posts/1261357616036475</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1261357606036476/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1261357616036475/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1111,17 +1119,17 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1261357606036476/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1261357616036475/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1131,12 +1139,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/dqxx191jdim</t>
+          <t>https://www.facebook.com/100064867445065/posts/1261357606036476</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXX191jDIm/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1261357606036476/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1153,20 +1161,16 @@
       <c r="M13" t="b">
         <v>0</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQXX191jDIm/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1261357606036476/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1180,12 +1184,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/dqxxzqwddzv</t>
+          <t>https://www.instagram.com/p/dqxx191jdim</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXXzQWDDZV/</t>
+          <t>https://www.instagram.com/p/DQXX191jDIm/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1209,13 +1213,13 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQXXzQWDDZV/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DQXX191jDIm/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1229,12 +1233,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/dqxx1g-jbg9</t>
+          <t>https://www.instagram.com/p/dqxxzqwddzv</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXX1g-jBg9/</t>
+          <t>https://www.instagram.com/p/DQXXzQWDDZV/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1258,13 +1262,13 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQXX1g-jBg9/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DQXXzQWDDZV/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1278,12 +1282,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/dqxav3bjm4e</t>
+          <t>https://www.instagram.com/p/dqxx1g-jbg9</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXaV3BjM4E/</t>
+          <t>https://www.instagram.com/p/DQXX1g-jBg9/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1307,13 +1311,13 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQXaV3BjM4E/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DQXX1g-jBg9/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1327,12 +1331,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/dqmhtk1dgri</t>
+          <t>https://www.instagram.com/p/dqxav3bjm4e</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQMhtk1DGri/</t>
+          <t>https://www.instagram.com/p/DQXaV3BjM4E/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1356,17 +1360,17 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQMhtk1DGri/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DQXaV3BjM4E/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1376,12 +1380,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/zsynjcxps</t>
+          <t>https://www.instagram.com/p/dqmhtk1dgri</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynjCxPs/</t>
+          <t>https://www.instagram.com/p/DQMhtk1DGri/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1398,12 +1402,20 @@
       <c r="M18" t="b">
         <v>0</v>
       </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQMhtk1DGri/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1417,12 +1429,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/zsynjxvkv</t>
+          <t>https://vt.tiktok.com/zsynjcxps</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynjXVkv/</t>
+          <t>https://vt.tiktok.com/ZSynjCxPs/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1444,7 +1456,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1458,12 +1470,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/zsynj9uqf</t>
+          <t>https://vt.tiktok.com/zsynjxvkv</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynj9uqF/</t>
+          <t>https://vt.tiktok.com/ZSynjXVkv/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1485,7 +1497,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1499,12 +1511,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/zsynjbfup</t>
+          <t>https://vt.tiktok.com/zsynj9uqf</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynjbfUp/</t>
+          <t>https://vt.tiktok.com/ZSynj9uqF/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1526,7 +1538,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1540,12 +1552,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/zsynjhru3</t>
+          <t>https://vt.tiktok.com/zsynjbfup</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynjHRu3/</t>
+          <t>https://vt.tiktok.com/ZSynjbfUp/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1567,7 +1579,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1581,12 +1593,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/zsynjktgn</t>
+          <t>https://vt.tiktok.com/zsynjhru3</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynjktgn/</t>
+          <t>https://vt.tiktok.com/ZSynjHRu3/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1608,7 +1620,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1622,12 +1634,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/zsynj9yyk</t>
+          <t>https://vt.tiktok.com/zsynjktgn</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynj9YYK/</t>
+          <t>https://vt.tiktok.com/ZSynjktgn/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1649,7 +1661,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1663,12 +1675,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/zsynjag7c</t>
+          <t>https://vt.tiktok.com/zsynj9yyk</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynjAG7C/</t>
+          <t>https://vt.tiktok.com/ZSynj9YYK/</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1690,7 +1702,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1704,12 +1716,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/zsy8enmrw</t>
+          <t>https://vt.tiktok.com/zsynjag7c</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSy8ENMRW/</t>
+          <t>https://vt.tiktok.com/ZSynjAG7C/</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1731,11 +1743,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>tiktok</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1745,12 +1757,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.facebook.com</t>
+          <t>https://vt.tiktok.com/zsy8enmrw</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/</t>
+          <t>https://vt.tiktok.com/ZSy8ENMRW/</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1768,15 +1780,11 @@
         <v>0</v>
       </c>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.facebook.com/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
-        </is>
-      </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1790,12 +1798,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwgrutbkvjcm1vteawq4o8z9qw6zaxw4b1xohbbqgxs1q2wygscrorq8otk7ccyl</t>
+          <t>https://www.facebook.com</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
+          <t>https://www.facebook.com/</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1815,13 +1823,13 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.facebook.com/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1835,12 +1843,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid029ht2zwy4t8tumlilrjgj4ris4nppcrzprrzjeigt59gb1qdofubputcd9nuevefwl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwgrutbkvjcm1vteawq4o8z9qw6zaxw4b1xohbbqgxs1q2wygscrorq8otk7ccyl</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1860,13 +1868,13 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1880,12 +1888,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02bwqcswuatn4elybstsigh58asmr2r7guz8lgt3phumpxe2cvtis4ps1fyv6qmaqul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid029ht2zwy4t8tumlilrjgj4ris4nppcrzprrzjeigt59gb1qdofubputcd9nuevefwl</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1905,13 +1913,13 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1925,12 +1933,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02phkxpjn3dz7gnsrftgsfv5kygnetavzsrkiknhj1myudcjauvharaafn7igoh2nvl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02bwqcswuatn4elybstsigh58asmr2r7guz8lgt3phumpxe2cvtis4ps1fyv6qmaqul</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1950,13 +1958,13 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1970,12 +1978,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02xvfblpzfxhmk2vtzr5grmpap75sercqshtdxidvefdkpwqbycnt8e2ddtbhk5srul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02phkxpjn3dz7gnsrftgsfv5kygnetavzsrkiknhj1myudcjauvharaafn7igoh2nvl</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -1995,13 +2003,13 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2015,12 +2023,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0j6jtae3wz43drqg4gg7thmv8qeaa3ekmduqml3rju1aywxatp6gjy8atwoaslf35l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02xvfblpzfxhmk2vtzr5grmpap75sercqshtdxidvefdkpwqbycnt8e2ddtbhk5srul</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2040,13 +2048,13 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2060,12 +2068,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0meadgnbtfkofjnq5rvq68rcsyxxbrfrtgq4p8gabkrndktcanp82nqnz8tehzrogl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0j6jtae3wz43drqg4gg7thmv8qeaa3ekmduqml3rju1aywxatp6gjy8atwoaslf35l</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2085,7 +2093,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -3127,10 +3135,8 @@
       <c r="D28" t="n">
         <v>3</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
+      <c r="E28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3169,10 +3175,12 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="31">

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,13 +514,18 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>extraction_status</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>created_time_raw</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -534,35 +539,33 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0meadgnbtfkofjnq5rvq68rcsyxxbrfrtgq4p8gabkrndktcanp82nqnz8tehzrogl</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Qeee titi dijo una amiga mía jejejeje</t>
+          <t>Sería perfecto sin azúcar</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45974.1278125</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>45974</v>
+        <v>45959.12414351852</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>45959</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>03:04:03</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>02:58:46</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -571,15 +574,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EDLWsCZzDuD3r8eoirqM7kED9jHGqkoUQCaTS3nfRRxyvu2qV5HNqqJACer11jkcl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una amiga mía jejejeje', 'profileUrl': 'https://www.facebook.com/miguelangel.zunigamunoz', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/488936583_2114981389005338_3192753571819941645_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wEs1fO67ExUQ7kNvwG_3huf&amp;_nc_oc=AdlHk08RUGFKGstj19G0yaX9H_H8ThdTfpiyP0Ry1QUAYUjCNosSQVqeQ1zupDeRApw&amp;_nc_zt=24&amp;_nc_ht=scontent-sea1-1.xx&amp;_nc_gid=Mp95fIDBVqrqlnL2wVZJyw&amp;oh=00_Afhn1CEZ9BU3QAibsdQoOsnA48xh1FIF21wEgATIUR98Vg&amp;oe=691BBE34', 'profileId': 'pfbid0dm7rDmHUQvhJG3WR3F9QsT4tcsFEszEW5ShzowLfPQhd6z3rmSjai8iu21LrgBhWl', 'profileName': 'Miguel Angel Zuñiga Muñoz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1268598781979025', 'postTitle': 'En temporada de cole: Cuadernos ✅, amigos ✅, Lochera ✅ y Yox con Defensis rico en vitamina C y Zinc que ayudan a reforzar su sistema de defensas.👉 Dáselo todos los días. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl'}</t>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0qRtJkzapjGbpB6PbSo13kaWEhFkcHnJfTxGdUiSrc7otqZZbhSouMeypTdAyVz6vl?comment_id=1348588736815786', 'id': 'Y29tbWVudDoxMjYwODA5MTY5NDI0NjUzXzEzNDg1ODg3MzY4MTU3ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTE2OTQyNDY1M18xMzQ4NTg4NzM2ODE1Nzg2', 'date': '2025-10-29T02:58:46.000Z', 'text': 'Sería perfecto sin azúcar', 'profileUrl': 'https://www.facebook.com/omar.caberamoreno', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/391616913_10229488674154916_3074313784069236130_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9Dc2rPLh9wcQ7kNvwHdiBaX&amp;_nc_oc=AdnfS_6buGUdJH6UlQvquVp7YVUCGBf2nziI0KB3l8CUQU0pniNB9ekMXTOXZjRXLuw&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=vuh6lXhQIP7c3FuZ3Jn2Ug&amp;oh=00_Afexppafu-dJBTIm95Hqyj3XI04Vf1CD18DvTmnbr5rV2w&amp;oe=6908062D', 'profileId': 'pfbid0qBUAo1KULxBQRUjARTegrpBSgKnM4t7WbfNXidYf79AGwmHxd54V7XcPDFLezoG9l', 'profileName': 'Omar Cabera Moreno', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809169424653', 'postTitle': 'Hacer mercado es cuidarte y cuidar lo que te comes.\nToma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/'}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -593,29 +597,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxcqjbj6hewouq4erdjwpz28vvypdfgsq1aymlcfuov7kymfqomceduqfmlvy2sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>El mejor Probiótico</t>
+          <t>Me fascina el de Vainilla 😋</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45971.41180555556</v>
+        <v>45959.07354166666</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>45971</v>
+        <v>45959</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>09:53:00</t>
+          <t>01:45:54</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -628,15 +632,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05fjxGFwdSm9gnGjDTpS7ejdLwDb3KFAjFNPSBb1n9yPFohcVxqFFDWbNnUWGgAjCl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico', 'profileUrl': 'https://www.facebook.com/edgardo.h.torres', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/329949499_706379934324681_6066166283931111198_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=nKSouesrjcIQ7kNvwFnKX7A&amp;_nc_oc=Adn_R5LP05oa2LTQR-ZgUeiO7pDNXNfYKq9JM1gUlgJd40yb1__eqFoeiMf9cxE1ZP8&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=dAY9KYGh_8YKeBTx6BVwpQ&amp;oh=00_AfgtUdGrBN9b9zQ89NAyuxfQFgqPqlwGhn8Fty2Im0XWuQ&amp;oe=691AFB58', 'profileId': '562425066', 'profileName': 'Edgardo Henriquez Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1268598918645678', 'postTitle': 'La alimentación y su lonchera son parte de la rutina escolar. Incluye Yox con Defensis rico en vitamina C y Zinc que ayudan a reforzar su sistema de defensas. Dale uno cada mañana. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl'}</t>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0qRtJkzapjGbpB6PbSo13kaWEhFkcHnJfTxGdUiSrc7otqZZbhSouMeypTdAyVz6vl?comment_id=2029984121170617', 'id': 'Y29tbWVudDoxMjYwODA5MTY5NDI0NjUzXzIwMjk5ODQxMjExNzA2MTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTE2OTQyNDY1M18yMDI5OTg0MTIxMTcwNjE3', 'date': '2025-10-29T01:45:54.000Z', 'text': 'Me fascina el de Vainilla 😋', 'profileUrl': 'https://www.facebook.com/patricia.mercado.37625843', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/474858966_970941714962829_3249291076544783340_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1LBf3DgiQ4sQ7kNvwEj6e5f&amp;_nc_oc=Adl0xjfOG8lMov2nBLrvCf-UAjbsbwtONICR_DHcReTWnbE_B5tcbX22gMA36fgpNYA&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=vuh6lXhQIP7c3FuZ3Jn2Ug&amp;oh=00_Afe2tMf1Ka05vNSg7uP-uHRo7iP2kNFVHFniPOo0ahuzCA&amp;oe=69080BD3', 'profileId': 'pfbid029AeLn8BoyLTsxF5SVieZno1SZTL3g1waspD7D6p4tciNE13pEcvhujow4tEMLSkGl', 'profileName': 'Patricia Mercado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809169424653', 'postTitle': 'Hacer mercado es cuidarte y cuidar lo que te comes.\nToma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/'}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -650,29 +655,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxcqjbj6hewouq4erdjwpz28vvypdfgsq1aymlcfuov7kymfqomceduqfmlvy2sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Igual que los anteriores</t>
+          <t>Este no es levy?</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45969.86098379629</v>
+        <v>45959.06515046296</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>45969</v>
+        <v>45959</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>20:39:49</t>
+          <t>01:33:49</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -685,19 +690,20 @@
         <v>0</v>
       </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05fjxGFwdSm9gnGjDTpS7ejdLwDb3KFAjFNPSBb1n9yPFohcVxqFFDWbNnUWGgAjCl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteriores', 'profileUrl': 'https://www.facebook.com/people/Ismael-Rodriguez/pfbid0RkaPFuwoS5PvbgwKK6ngfGhJrUanmEwpSpFgFoMTCEhaa5rxu1DxmbW9m2CVm7c1l/', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/326923818_6002114453180357_1471721040400209943_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lPeXKxMl43cQ7kNvwF32weM&amp;_nc_oc=AdnQZkbkctt4tfLbF6ohJc3QieIPyawG56n8mLLRvxz5K10gz-D4TBLNjk_T9PwRZLE&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=dAY9KYGh_8YKeBTx6BVwpQ&amp;oh=00_Afjp68TbtSA6ovXUvLp67BfsDd1F7sYTFgzDWLS0YOsBeQ&amp;oe=691AE93A', 'profileId': 'pfbid0RkaPFuwoS5PvbgwKK6ngfGhJrUanmEwpSpFgFoMTCEhaa5rxu1DxmbW9m2CVm7c1l', 'profileName': 'Ismael Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1268598918645678', 'postTitle': 'La alimentación y su lonchera son parte de la rutina escolar. Incluye Yox con Defensis rico en vitamina C y Zinc que ayudan a reforzar su sistema de defensas. Dale uno cada mañana. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl'}</t>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0qRtJkzapjGbpB6PbSo13kaWEhFkcHnJfTxGdUiSrc7otqZZbhSouMeypTdAyVz6vl?comment_id=1042719824568765', 'id': 'Y29tbWVudDoxMjYwODA5MTY5NDI0NjUzXzEwNDI3MTk4MjQ1Njg3NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTE2OTQyNDY1M18xMDQyNzE5ODI0NTY4NzY1', 'date': '2025-10-29T01:33:49.000Z', 'text': 'Este no es levy?', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/321493827_6126216284068746_2099740004517525238_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5NUK5w0ArhEQ7kNvwGcyPsP&amp;_nc_oc=AdkxxJ2s_oyGwJevRwvZ16gLrok6ICv8LW1TAFdKMY-Ir6Pc9-eVRW9DRTDaRVabKSQ&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=vuh6lXhQIP7c3FuZ3Jn2Ug&amp;oh=00_AferZcoJ1eNUdc0_aMoZaym8_bM4hj8VbHtqLdeu4IDrqw&amp;oe=6907F8D7', 'profileId': 'pfbid0tW7hVkK1pwwHNwtdjmpwLSbkuHKhgVG8wpbPzSLdC6cw6hJrW3DMF2tDxgo7z92Cl', 'profileName': 'Maria Fernanda Villafañe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809169424653', 'postTitle': 'Hacer mercado es cuidarte y cuidar lo que te comes.\nToma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/'}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>tiktok</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -707,31 +713,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxcqjbj6hewouq4erdjwpz28vvypdfgsq1aymlcfuov7kymfqomceduqfmlvy2sl</t>
+          <t>https://vt.tiktok.com/zsynjcxps</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://vt.tiktok.com/ZSynjCxPs/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>45969.62359953704</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>45969</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>14:57:59</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -742,15 +736,12 @@
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05fjxGFwdSm9gnGjDTpS7ejdLwDb3KFAjFNPSBb1n9yPFohcVxqFFDWbNnUWGgAjCl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse', 'profileUrl': 'https://www.facebook.com/judith.alexandra.baez.manotas', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/494024229_633122043055352_7880059244206662785_n.jpg?stp=c0.0.617.617a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=NuCLOyyCQbMQ7kNvwGORXW5&amp;_nc_oc=AdlWTBMly9gHGAYLxEIgcOMOVPy3eYdsK5MY9G6ieQsND82WvCgLVFi3v6ypxZ7Y0Mo&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=dAY9KYGh_8YKeBTx6BVwpQ&amp;oh=00_AfjAR-UfcAOpj6eKFDGi1yxjmVhlO9eMGxxyPr_BE8rB5Q&amp;oe=691AF70E', 'profileId': 'pfbid02KhgcGkirzRpgAwRhLBzFEY8By7owzednM75qsBYtEN7t4ti9Mn6ywiyD8Jn9TTg7l', 'profileName': 'Judith Alexandra Baez Manotas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1268598918645678', 'postTitle': 'La alimentación y su lonchera son parte de la rutina escolar. Incluye Yox con Defensis rico en vitamina C y Zinc que ayudan a reforzar su sistema de defensas. Dale uno cada mañana. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl'}</t>
-        </is>
-      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -764,31 +755,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808139424756</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808222758081</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808139424756/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808222758081/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Acepto</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>45959.47121527778</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>45959</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>11:18:33</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -799,19 +778,20 @@
         <v>0</v>
       </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808139424756/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid025KXbi5GFJyiWb2shXz1dngY4fQiwwxenhfuNr16MavM6TpGESvJ2uKEu9S6Euv5yl?comment_id=850108050787140', 'id': 'Y29tbWVudDoxMjYwODA5MDQ5NDI0NjY1Xzg1MDEwODA1MDc4NzE0MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTA0OTQyNDY2NV84NTAxMDgwNTA3ODcxNDA=', 'date': '2025-10-29T11:18:33.000Z', 'text': 'Acepto', 'profileUrl': 'https://www.facebook.com/aideth.luna.2025', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/241214040_1436244446754525_1403762865664656098_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mEe9zIVP12UQ7kNvwHZyXZt&amp;_nc_oc=Adn0LfFbozKMlJvLD_WnasSh--ijBCBm_PpBE00xr2HUnNs02iFoZNLpg3rJN0A2lCk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=RrL6uwPnxLsk3OlptzlM6g&amp;oh=00_AfcCw8wOy-HSEkI5joHdr9nfSxtv4SbBlSoxMwsqxFEXhg&amp;oe=6908141E', 'profileId': 'pfbid02uyqzxrX31D7tLkUzPpxR9gh9sHSCewRaySXnuGGBDBFkRhs4PHG5GNUSfgGKsDbsl', 'profileName': 'Aideth Luna', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809049424665', 'postTitle': 'Toma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas. Búscalo en tu supermercado favorito. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808139424756/'}</t>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808222758081/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>tiktok</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -821,31 +801,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808236091413</t>
+          <t>https://vt.tiktok.com/zsynjxvkv</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
+          <t>https://vt.tiktok.com/ZSynjXVkv/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Sería perfecto sin azúcar</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>45959.12414351852</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>45959</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>02:58:46</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -856,15 +824,12 @@
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0qRtJkzapjGbpB6PbSo13kaWEhFkcHnJfTxGdUiSrc7otqZZbhSouMeypTdAyVz6vl?comment_id=1348588736815786', 'id': 'Y29tbWVudDoxMjYwODA5MTY5NDI0NjUzXzEzNDg1ODg3MzY4MTU3ODY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTE2OTQyNDY1M18xMzQ4NTg4NzM2ODE1Nzg2', 'date': '2025-10-29T02:58:46.000Z', 'text': 'Sería perfecto sin azúcar', 'profileUrl': 'https://www.facebook.com/omar.caberamoreno', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/391616913_10229488674154916_3074313784069236130_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=103&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=9Dc2rPLh9wcQ7kNvwHdiBaX&amp;_nc_oc=AdnfS_6buGUdJH6UlQvquVp7YVUCGBf2nziI0KB3l8CUQU0pniNB9ekMXTOXZjRXLuw&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=vuh6lXhQIP7c3FuZ3Jn2Ug&amp;oh=00_Afexppafu-dJBTIm95Hqyj3XI04Vf1CD18DvTmnbr5rV2w&amp;oe=6908062D', 'profileId': 'pfbid0qBUAo1KULxBQRUjARTegrpBSgKnM4t7WbfNXidYf79AGwmHxd54V7XcPDFLezoG9l', 'profileName': 'Omar Cabera Moreno', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809169424653', 'postTitle': 'Hacer mercado es cuidarte y cuidar lo que te comes.\nToma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/'}</t>
-        </is>
-      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -878,29 +843,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808236091413</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808139424756</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808139424756/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Me fascina el de Vainilla 😋</t>
+          <t>Acepto</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45959.07354166666</v>
+        <v>45959.47121527778</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>45959</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>01:45:54</t>
+          <t>11:18:33</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -913,19 +878,20 @@
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0qRtJkzapjGbpB6PbSo13kaWEhFkcHnJfTxGdUiSrc7otqZZbhSouMeypTdAyVz6vl?comment_id=2029984121170617', 'id': 'Y29tbWVudDoxMjYwODA5MTY5NDI0NjUzXzIwMjk5ODQxMjExNzA2MTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTE2OTQyNDY1M18yMDI5OTg0MTIxMTcwNjE3', 'date': '2025-10-29T01:45:54.000Z', 'text': 'Me fascina el de Vainilla 😋', 'profileUrl': 'https://www.facebook.com/patricia.mercado.37625843', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/474858966_970941714962829_3249291076544783340_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=105&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=1LBf3DgiQ4sQ7kNvwEj6e5f&amp;_nc_oc=Adl0xjfOG8lMov2nBLrvCf-UAjbsbwtONICR_DHcReTWnbE_B5tcbX22gMA36fgpNYA&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=vuh6lXhQIP7c3FuZ3Jn2Ug&amp;oh=00_Afe2tMf1Ka05vNSg7uP-uHRo7iP2kNFVHFniPOo0ahuzCA&amp;oe=69080BD3', 'profileId': 'pfbid029AeLn8BoyLTsxF5SVieZno1SZTL3g1waspD7D6p4tciNE13pEcvhujow4tEMLSkGl', 'profileName': 'Patricia Mercado', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809169424653', 'postTitle': 'Hacer mercado es cuidarte y cuidar lo que te comes.\nToma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/'}</t>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808139424756/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid025KXbi5GFJyiWb2shXz1dngY4fQiwwxenhfuNr16MavM6TpGESvJ2uKEu9S6Euv5yl?comment_id=850108050787140', 'id': 'Y29tbWVudDoxMjYwODA5MDQ5NDI0NjY1Xzg1MDEwODA1MDc4NzE0MA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTA0OTQyNDY2NV84NTAxMDgwNTA3ODcxNDA=', 'date': '2025-10-29T11:18:33.000Z', 'text': 'Acepto', 'profileUrl': 'https://www.facebook.com/aideth.luna.2025', 'profilePicture': 'https://scontent-lga3-2.xx.fbcdn.net/v/t39.30808-1/241214040_1436244446754525_1403762865664656098_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=mEe9zIVP12UQ7kNvwHZyXZt&amp;_nc_oc=Adn0LfFbozKMlJvLD_WnasSh--ijBCBm_PpBE00xr2HUnNs02iFoZNLpg3rJN0A2lCk&amp;_nc_zt=24&amp;_nc_ht=scontent-lga3-2.xx&amp;_nc_gid=RrL6uwPnxLsk3OlptzlM6g&amp;oh=00_AfcCw8wOy-HSEkI5joHdr9nfSxtv4SbBlSoxMwsqxFEXhg&amp;oe=6908141E', 'profileId': 'pfbid02uyqzxrX31D7tLkUzPpxR9gh9sHSCewRaySXnuGGBDBFkRhs4PHG5GNUSfgGKsDbsl', 'profileName': 'Aideth Luna', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809049424665', 'postTitle': 'Toma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas. Búscalo en tu supermercado favorito. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808139424756/'}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>tiktok</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -935,31 +901,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808236091413</t>
+          <t>https://vt.tiktok.com/zsynj9uqf</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
+          <t>https://vt.tiktok.com/ZSynj9uqF/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Este no es levy?</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>45959.06515046296</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>45959</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>01:33:49</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -970,15 +924,12 @@
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0qRtJkzapjGbpB6PbSo13kaWEhFkcHnJfTxGdUiSrc7otqZZbhSouMeypTdAyVz6vl?comment_id=1042719824568765', 'id': 'Y29tbWVudDoxMjYwODA5MTY5NDI0NjUzXzEwNDI3MTk4MjQ1Njg3NjU=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgwOTE2OTQyNDY1M18xMDQyNzE5ODI0NTY4NzY1', 'date': '2025-10-29T01:33:49.000Z', 'text': 'Este no es levy?', 'profilePicture': 'https://scontent-bos5-1.xx.fbcdn.net/v/t39.30808-1/321493827_6126216284068746_2099740004517525238_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=101&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=5NUK5w0ArhEQ7kNvwGcyPsP&amp;_nc_oc=AdkxxJ2s_oyGwJevRwvZ16gLrok6ICv8LW1TAFdKMY-Ir6Pc9-eVRW9DRTDaRVabKSQ&amp;_nc_zt=24&amp;_nc_ht=scontent-bos5-1.xx&amp;_nc_gid=vuh6lXhQIP7c3FuZ3Jn2Ug&amp;oh=00_AferZcoJ1eNUdc0_aMoZaym8_bM4hj8VbHtqLdeu4IDrqw&amp;oe=6907F8D7', 'profileId': 'pfbid0tW7hVkK1pwwHNwtdjmpwLSbkuHKhgVG8wpbPzSLdC6cw6hJrW3DMF2tDxgo7z92Cl', 'profileName': 'Maria Fernanda Villafañe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260809169424653', 'postTitle': 'Hacer mercado es cuidarte y cuidar lo que te comes.\nToma Yox con Defensis rico en vitamina C y zinc que ayudan a reforzar tus defensas.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808236091413/'}</t>
-        </is>
-      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -992,31 +943,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260822012756702</t>
+          <t>https://www.facebook.com/100064867445065/posts/1261357616036475</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260822012756702/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1261357616036475/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Hola Prima como estás</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>45959.06054398148</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>45959</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>01:27:11</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1027,19 +966,20 @@
         <v>0</v>
       </c>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260822012756702/', 'commentUrl': 'https://www.facebook.com/reel/712516344573526/?comment_id=1146379767042504', 'id': 'Y29tbWVudDoxMjYwODIyMzg2MDg5OTk4XzExNDYzNzk3NjcwNDI1MDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgyMjM4NjA4OTk5OF8xMTQ2Mzc5NzY3MDQyNTA0', 'date': '2025-10-29T01:27:11.000Z', 'text': 'Hola Prima como estás', 'profileUrl': 'https://www.facebook.com/narda.uribe.1', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.6435-1/140635256_1030289400825191_8725920208160148472_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=F5GsPsgYmg0Q7kNvwEKNIfg&amp;_nc_oc=Adn8rO_TkZ1vjRhKotInq4Cp6nEfWH_xLy6S1GBHDQdVNGy_sFHuWZ4iFmsNdQj3rUQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=E4O7m6fyOdxCIr1d0O_baQ&amp;oh=00_AfdM6teEm1B4p63YSeYqww7XuIcHcwHN8rZ0uIb-QerEAw&amp;oe=69299B07', 'profileId': 'pfbid0364LZjXrqdytircM8hTd1FS7F5wPAGhDP7ZQBMgF4DNWDWS2XoQrGAJZaakoaMYjZl', 'profileName': 'Narda Uribe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260822386089998', 'postTitle': '👉 Llévalo en tu próxima compra.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260822012756702/'}</t>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1261357616036475/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>tiktok</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1049,12 +989,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808222758081</t>
+          <t>https://vt.tiktok.com/zsynjbfup</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808222758081/</t>
+          <t>https://vt.tiktok.com/ZSynjbfUp/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1072,15 +1012,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260808222758081/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
-        </is>
-      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1094,12 +1031,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1261357616036475</t>
+          <t>https://www.facebook.com/100064867445065/posts/1261357606036476</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1261357616036475/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1261357606036476/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1117,9 +1054,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1261357616036475/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1261357606036476/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1067,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>tiktok</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1139,12 +1077,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1261357606036476</t>
+          <t>https://vt.tiktok.com/zsynjhru3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1261357606036476/</t>
+          <t>https://vt.tiktok.com/ZSynjHRu3/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1162,19 +1100,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1261357606036476/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
-        </is>
-      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1184,19 +1119,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/dqxx191jdim</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260822012756702</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXX191jDIm/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260822012756702/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Hola Prima como estás</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>45959.06054398148</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>01:27:11</t>
+        </is>
+      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
@@ -1206,24 +1153,21 @@
       <c r="M14" t="b">
         <v>0</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.instagram.com/p/DQXX191jDIm/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/1260822012756702/', 'commentUrl': 'https://www.facebook.com/reel/712516344573526/?comment_id=1146379767042504', 'id': 'Y29tbWVudDoxMjYwODIyMzg2MDg5OTk4XzExNDYzNzk3NjcwNDI1MDQ=', 'feedbackId': 'ZmVlZGJhY2s6MTI2MDgyMjM4NjA4OTk5OF8xMTQ2Mzc5NzY3MDQyNTA0', 'date': '2025-10-29T01:27:11.000Z', 'text': 'Hola Prima como estás', 'profileUrl': 'https://www.facebook.com/narda.uribe.1', 'profilePicture': 'https://scontent-atl3-1.xx.fbcdn.net/v/t1.6435-1/140635256_1030289400825191_8725920208160148472_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=F5GsPsgYmg0Q7kNvwEKNIfg&amp;_nc_oc=Adn8rO_TkZ1vjRhKotInq4Cp6nEfWH_xLy6S1GBHDQdVNGy_sFHuWZ4iFmsNdQj3rUQ&amp;_nc_zt=24&amp;_nc_ht=scontent-atl3-1.xx&amp;_nc_gid=E4O7m6fyOdxCIr1d0O_baQ&amp;oh=00_AfdM6teEm1B4p63YSeYqww7XuIcHcwHN8rZ0uIb-QerEAw&amp;oe=69299B07', 'profileId': 'pfbid0364LZjXrqdytircM8hTd1FS7F5wPAGhDP7ZQBMgF4DNWDWS2XoQrGAJZaakoaMYjZl', 'profileName': 'Narda Uribe', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1260822386089998', 'postTitle': '👉 Llévalo en tu próxima compra.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260822012756702/'}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>tiktok</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1233,12 +1177,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/dqxxzqwddzv</t>
+          <t>https://vt.tiktok.com/zsynjktgn</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXXzQWDDZV/</t>
+          <t>https://vt.tiktok.com/ZSynjktgn/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1255,20 +1199,13 @@
       <c r="M15" t="b">
         <v>0</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.instagram.com/p/DQXXzQWDDZV/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
-        </is>
-      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1282,12 +1219,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/dqxx1g-jbg9</t>
+          <t>https://www.instagram.com/p/dqxx191jdim</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXX1g-jBg9/</t>
+          <t>https://www.instagram.com/p/DQXX191jDIm/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1309,19 +1246,20 @@
           <t>https://instagram.com/</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.instagram.com/p/DQXX1g-jBg9/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQXX191jDIm/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>tiktok</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1331,12 +1269,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/dqxav3bjm4e</t>
+          <t>https://vt.tiktok.com/zsynj9yyk</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXaV3BjM4E/</t>
+          <t>https://vt.tiktok.com/ZSynj9YYK/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1353,20 +1291,13 @@
       <c r="M17" t="b">
         <v>0</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.instagram.com/p/DQXaV3BjM4E/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
-        </is>
-      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1380,12 +1311,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/dqmhtk1dgri</t>
+          <t>https://www.instagram.com/p/dqxxzqwddzv</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQMhtk1DGri/</t>
+          <t>https://www.instagram.com/p/DQXXzQWDDZV/</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1407,15 +1338,16 @@
           <t>https://instagram.com/</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.instagram.com/p/DQMhtk1DGri/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQXXzQWDDZV/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1429,12 +1361,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/zsynjcxps</t>
+          <t>https://vt.tiktok.com/zsynjag7c</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynjCxPs/</t>
+          <t>https://vt.tiktok.com/ZSynjAG7C/</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1453,14 +1385,15 @@
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1470,12 +1403,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/zsynjxvkv</t>
+          <t>https://www.instagram.com/p/dqxx1g-jbg9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynjXVkv/</t>
+          <t>https://www.instagram.com/p/DQXX1g-jBg9/</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1492,12 +1425,21 @@
       <c r="M20" t="b">
         <v>0</v>
       </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQXX1g-jBg9/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1511,12 +1453,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/zsynj9uqf</t>
+          <t>https://vt.tiktok.com/zsy8enmrw</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynj9uqF/</t>
+          <t>https://vt.tiktok.com/ZSy8ENMRW/</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1535,14 +1477,15 @@
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1552,12 +1495,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/zsynjbfup</t>
+          <t>https://www.instagram.com/p/dqxav3bjm4e</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynjbfUp/</t>
+          <t>https://www.instagram.com/p/DQXaV3BjM4E/</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1574,16 +1517,25 @@
       <c r="M22" t="b">
         <v>0</v>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQXaV3BjM4E/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tiktok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1593,12 +1545,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/zsynjhru3</t>
+          <t>https://www.facebook.com</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynjHRu3/</t>
+          <t>https://www.facebook.com/</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1617,14 +1569,19 @@
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.facebook.com/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1634,12 +1591,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/zsynjktgn</t>
+          <t>https://www.instagram.com/p/dqmhtk1dgri</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynjktgn/</t>
+          <t>https://www.instagram.com/p/DQMhtk1DGri/</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1656,16 +1613,25 @@
       <c r="M24" t="b">
         <v>0</v>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQMhtk1DGri/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tiktok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1675,12 +1641,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/zsynj9yyk</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwgrutbkvjcm1vteawq4o8z9qw6zaxw4b1xohbbqgxs1q2wygscrorq8otk7ccyl</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynj9YYK/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1699,14 +1665,19 @@
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tiktok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1716,12 +1687,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/zsynjag7c</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid029ht2zwy4t8tumlilrjgj4ris4nppcrzprrzjeigt59gb1qdofubputcd9nuevefwl</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynjAG7C/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1740,14 +1711,19 @@
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tiktok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1757,12 +1733,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/zsy8enmrw</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02bwqcswuatn4elybstsigh58asmr2r7guz8lgt3phumpxe2cvtis4ps1fyv6qmaqul</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSy8ENMRW/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1781,10 +1757,15 @@
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1798,12 +1779,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.facebook.com</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02phkxpjn3dz7gnsrftgsfv5kygnetavzsrkiknhj1myudcjauvharaafn7igoh2nvl</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1821,15 +1802,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.facebook.com/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1843,12 +1825,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwgrutbkvjcm1vteawq4o8z9qw6zaxw4b1xohbbqgxs1q2wygscrorq8otk7ccyl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02xvfblpzfxhmk2vtzr5grmpap75sercqshtdxidvefdkpwqbycnt8e2ddtbhk5srul</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1866,15 +1848,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1888,19 +1871,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid029ht2zwy4t8tumlilrjgj4ris4nppcrzprrzjeigt59gb1qdofubputcd9nuevefwl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxcqjbj6hewouq4erdjwpz28vvypdfgsq1aymlcfuov7kymfqomceduqfmlvy2sl</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>El mejor Probiótico</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>45971.41180555556</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>45971</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>09:53:00</t>
+        </is>
+      </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
@@ -1911,15 +1906,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05fjxGFwdSm9gnGjDTpS7ejdLwDb3KFAjFNPSBb1n9yPFohcVxqFFDWbNnUWGgAjCl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico', 'profileUrl': 'https://www.facebook.com/edgardo.h.torres', 'profilePicture': 'https://scontent-sjc3-1.xx.fbcdn.net/v/t39.30808-1/329949499_706379934324681_6066166283931111198_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=100&amp;ccb=1-7&amp;_nc_sid=1d2534&amp;_nc_ohc=nKSouesrjcIQ7kNvwFnKX7A&amp;_nc_oc=Adn_R5LP05oa2LTQR-ZgUeiO7pDNXNfYKq9JM1gUlgJd40yb1__eqFoeiMf9cxE1ZP8&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc3-1.xx&amp;_nc_gid=dAY9KYGh_8YKeBTx6BVwpQ&amp;oh=00_AfgtUdGrBN9b9zQ89NAyuxfQFgqPqlwGhn8Fty2Im0XWuQ&amp;oe=691AFB58', 'profileId': '562425066', 'profileName': 'Edgardo Henriquez Torres', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1268598918645678', 'postTitle': 'La alimentación y su lonchera son parte de la rutina escolar. Incluye Yox con Defensis rico en vitamina C y Zinc que ayudan a reforzar su sistema de defensas. Dale uno cada mañana. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl'}</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1933,19 +1929,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02bwqcswuatn4elybstsigh58asmr2r7guz8lgt3phumpxe2cvtis4ps1fyv6qmaqul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxcqjbj6hewouq4erdjwpz28vvypdfgsq1aymlcfuov7kymfqomceduqfmlvy2sl</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Igual que los anteriores</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>45969.86098379629</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>45969</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>20:39:49</t>
+        </is>
+      </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
@@ -1956,15 +1964,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05fjxGFwdSm9gnGjDTpS7ejdLwDb3KFAjFNPSBb1n9yPFohcVxqFFDWbNnUWGgAjCl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteriores', 'profileUrl': 'https://www.facebook.com/people/Ismael-Rodriguez/pfbid0RkaPFuwoS5PvbgwKK6ngfGhJrUanmEwpSpFgFoMTCEhaa5rxu1DxmbW9m2CVm7c1l/', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/326923818_6002114453180357_1471721040400209943_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=104&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=lPeXKxMl43cQ7kNvwF32weM&amp;_nc_oc=AdnQZkbkctt4tfLbF6ohJc3QieIPyawG56n8mLLRvxz5K10gz-D4TBLNjk_T9PwRZLE&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=dAY9KYGh_8YKeBTx6BVwpQ&amp;oh=00_Afjp68TbtSA6ovXUvLp67BfsDd1F7sYTFgzDWLS0YOsBeQ&amp;oe=691AE93A', 'profileId': 'pfbid0RkaPFuwoS5PvbgwKK6ngfGhJrUanmEwpSpFgFoMTCEhaa5rxu1DxmbW9m2CVm7c1l', 'profileName': 'Ismael Rodriguez', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1268598918645678', 'postTitle': 'La alimentación y su lonchera son parte de la rutina escolar. Incluye Yox con Defensis rico en vitamina C y Zinc que ayudan a reforzar su sistema de defensas. Dale uno cada mañana. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl'}</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1978,19 +1987,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02phkxpjn3dz7gnsrftgsfv5kygnetavzsrkiknhj1myudcjauvharaafn7igoh2nvl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxcqjbj6hewouq4erdjwpz28vvypdfgsq1aymlcfuov7kymfqomceduqfmlvy2sl</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>45969.62359953704</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>45969</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>14:57:59</t>
+        </is>
+      </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
@@ -2001,15 +2022,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05fjxGFwdSm9gnGjDTpS7ejdLwDb3KFAjFNPSBb1n9yPFohcVxqFFDWbNnUWGgAjCl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse', 'profileUrl': 'https://www.facebook.com/judith.alexandra.baez.manotas', 'profilePicture': 'https://scontent-sjc6-1.xx.fbcdn.net/v/t39.30808-1/494024229_633122043055352_7880059244206662785_n.jpg?stp=c0.0.617.617a_cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=107&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=NuCLOyyCQbMQ7kNvwGORXW5&amp;_nc_oc=AdlWTBMly9gHGAYLxEIgcOMOVPy3eYdsK5MY9G6ieQsND82WvCgLVFi3v6ypxZ7Y0Mo&amp;_nc_zt=24&amp;_nc_ht=scontent-sjc6-1.xx&amp;_nc_gid=dAY9KYGh_8YKeBTx6BVwpQ&amp;oh=00_AfjAR-UfcAOpj6eKFDGi1yxjmVhlO9eMGxxyPr_BE8rB5Q&amp;oe=691AF70E', 'profileId': 'pfbid02KhgcGkirzRpgAwRhLBzFEY8By7owzednM75qsBYtEN7t4ti9Mn6ywiyD8Jn9TTg7l', 'profileName': 'Judith Alexandra Baez Manotas', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1268598918645678', 'postTitle': 'La alimentación y su lonchera son parte de la rutina escolar. Incluye Yox con Defensis rico en vitamina C y Zinc que ayudan a reforzar su sistema de defensas. Dale uno cada mañana. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl'}</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2023,12 +2045,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02xvfblpzfxhmk2vtzr5grmpap75sercqshtdxidvefdkpwqbycnt8e2ddtbhk5srul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0j6jtae3wz43drqg4gg7thmv8qeaa3ekmduqml3rju1aywxatp6gjy8atwoaslf35l</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2046,15 +2068,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2068,19 +2091,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0j6jtae3wz43drqg4gg7thmv8qeaa3ekmduqml3rju1aywxatp6gjy8atwoaslf35l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0meadgnbtfkofjnq5rvq68rcsyxxbrfrtgq4p8gabkrndktcanp82nqnz8tehzrogl</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>45974.1278125</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>03:04:03</t>
+        </is>
+      </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
@@ -2091,9 +2126,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EDLWsCZzDuD3r8eoirqM7kED9jHGqkoUQCaTS3nfRRxyvu2qV5HNqqJACer11jkcl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una amiga mía jejejeje', 'profileUrl': 'https://www.facebook.com/miguelangel.zunigamunoz', 'profilePicture': 'https://scontent-sea1-1.xx.fbcdn.net/v/t39.30808-1/488936583_2114981389005338_3192753571819941645_n.jpg?stp=cp0_dst-jpg_s32x32_tt6&amp;_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=e99d92&amp;_nc_ohc=wEs1fO67ExUQ7kNvwG_3huf&amp;_nc_oc=AdlHk08RUGFKGstj19G0yaX9H_H8ThdTfpiyP0Ry1QUAYUjCNosSQVqeQ1zupDeRApw&amp;_nc_zt=24&amp;_nc_ht=scontent-sea1-1.xx&amp;_nc_gid=Mp95fIDBVqrqlnL2wVZJyw&amp;oh=00_Afhn1CEZ9BU3QAibsdQoOsnA48xh1FIF21wEgATIUR98Vg&amp;oe=691BBE34', 'profileId': 'pfbid0dm7rDmHUQvhJG3WR3F9QsT4tcsFEszEW5ShzowLfPQhd6z3rmSjai8iu21LrgBhWl', 'profileName': 'Miguel Angel Zuñiga Muñoz', 'likesCount': '0', 'threadingDepth': 0, 'facebookId': '1268598781979025', 'postTitle': 'En temporada de cole: Cuadernos ✅, amigos ✅, Lochera ✅ y Yox con Defensis rico en vitamina C y Zinc que ayudan a reforzar su sistema de defensas.👉 Dáselo todos los días. A un shot de estar bien.', 'pageAdLibrary': {'is_business_page_active': False, 'id': '177587607187'}, 'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl'}</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2172,8 @@
         <v>0</v>
       </c>
       <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr">
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
         <is>
           <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0iWSJqTLCzeTBgz7LSHbiDGqYbxC7cbhgfHGDVEt1r5CB8AwgjuV9xxtEwvQaZEGnl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
@@ -2181,7 +2218,8 @@
         <v>0</v>
       </c>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr">
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
         <is>
           <t>{'inputUrl': 'https://www.facebook.com/reel/848611304195556/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
@@ -2226,7 +2264,8 @@
         <v>0</v>
       </c>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr">
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
         <is>
           <t>{'inputUrl': 'https://www.facebook.com/reel/1135439792045406/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
@@ -2275,7 +2314,8 @@
           <t>https://instagram.com/</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
         <is>
           <t>{'url': 'https://www.instagram.com/p/DQHeaGojC-y/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
@@ -2324,7 +2364,8 @@
           <t>https://instagram.com/</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
         <is>
           <t>{'url': 'https://www.instagram.com/p/DQHedmRjHLo/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
@@ -2373,7 +2414,8 @@
           <t>https://instagram.com/</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
         <is>
           <t>{'url': 'https://www.instagram.com/p/DQHeZ1LjOge/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
@@ -2422,7 +2464,8 @@
           <t>https://instagram.com/</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
         <is>
           <t>{'url': 'https://www.instagram.com/p/DQ9jdxAjP_x/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
@@ -2471,7 +2514,8 @@
           <t>https://instagram.com/</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
         <is>
           <t>{'url': 'https://www.instagram.com/p/DQ9jtyTjD2N/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
@@ -2520,7 +2564,1906 @@
           <t>https://instagram.com/</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQ9jvTNDGNb/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjCxPs/</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjCxPs/</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>40</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjXVkv/</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjXVkv/</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>41</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynj9uqF/</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynj9uqF/</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>42</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjbfUp/</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjbfUp/</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>43</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjHRu3/</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjHRu3/</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>{'url': 'https://vt.tiktok.com/ZSynjHRu3/', 'error': 'Post not found or private.'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>44</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjktgn/</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjktgn/</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>45</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynj9YYK/</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynj9YYK/</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>46</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjAG7C/</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjAG7C/</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>47</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSy8ENMRW/</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSy8ENMRW/</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>48</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>49</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260808222758081/</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260808222758081/</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1260808222758081/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>50</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260808139424756/</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260808139424756/</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1260808139424756/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>51</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260822012756702/</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260822012756702/</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260822012756702/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>52</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1261357606036476/</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1261357606036476/</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1261357606036476/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>53</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1261357616036475/</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1261357616036475/</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1261357616036475/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>54</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>55</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
+        <v>0</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>56</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>57</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>El mejor Probiótico</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>45971.41180555556</v>
+      </c>
+      <c r="I64" s="3" t="n">
+        <v>45971</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>09:53:00</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05fjxGFwdSm9gnGjDTpS7ejdLwDb3KFAjFNPSBb1n9yPFohcVxqFFDWbNnUWGgAjCl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico',</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Igual que los anteriores</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>45969.86098379629</v>
+      </c>
+      <c r="I65" s="3" t="n">
+        <v>45969</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>20:39:49</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05fjxGFwdSm9gnGjDTpS7ejdLwDb3KFAjFNPSBb1n9yPFohcVxqFFDWbNnUWGgAjCl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anterio</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>45969.62359953704</v>
+      </c>
+      <c r="I66" s="3" t="n">
+        <v>45969</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>14:57:59</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05fjxGFwdSm9gnGjDTpS7ejdLwDb3KFAjFNPSBb1n9yPFohcVxqFFDWbNnUWGgAjCl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que Ase</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>60</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>61</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>45974.1278125</v>
+      </c>
+      <c r="I68" s="3" t="n">
+        <v>45974</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>03:04:03</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EDLWsCZzDuD3r8eoirqM7kED9jHGqkoUQCaTS3nfRRxyvu2qV5HNqqJACer11jkcl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una ami</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>62</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0iWSJqTLCzeTBgz7LSHbiDGqYbxC7cbhgfHGDVEt1r5CB8AwgjuV9xxtEwvQaZEGnl</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0iWSJqTLCzeTBgz7LSHbiDGqYbxC7cbhgfHGDVEt1r5CB8AwgjuV9xxtEwvQaZEGnl</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0iWSJqTLCzeTBgz7LSHbiDGqYbxC7cbhgfHGDVEt1r5CB8AwgjuV9xxtEwvQaZEGnl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>63</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/848611304195556/</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/848611304195556/</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/reel/848611304195556/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1135439792045406/</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1135439792045406/</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/reel/1135439792045406/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>65</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHeaGojC-y/</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHeaGojC-y/</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQHeaGojC-y/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>66</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQHedmRjHLo/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>67</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHeZ1LjOge/</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHeZ1LjOge/</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQHeZ1LjOge/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>68</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXX191jDIm/</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXX191jDIm/</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQXX191jDIm/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>69</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXXzQWDDZV/</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXXzQWDDZV/</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQXXzQWDDZV/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>70</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXX1g-jBg9/</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXX1g-jBg9/</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQXX1g-jBg9/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>71</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXaV3BjM4E/</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXaV3BjM4E/</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQXaV3BjM4E/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>72</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQMhtk1DGri/</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQMhtk1DGri/</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="b">
+        <v>0</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQMhtk1DGri/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>73</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jdxAjP_x/</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jdxAjP_x/</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="b">
+        <v>0</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQ9jdxAjP_x/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>74</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jtyTjD2N/</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jtyTjD2N/</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="b">
+        <v>0</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQ9jtyTjD2N/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>75</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jvTNDGNb/</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jvTNDGNb/</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
         <is>
           <t>{'url': 'https://www.instagram.com/p/DQ9jvTNDGNb/', 'requestErrorMessages': ['HTTP 404 Not found'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
@@ -2537,7 +4480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2571,6 +4514,16 @@
           <t>Total_Likes</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Primera_Extraccion</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Ultima_Extraccion</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2592,6 +4545,12 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
+      <c r="F2" s="2" t="n">
+        <v>45959.06515046296</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45959.12414351852</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2613,6 +4572,8 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2634,6 +4595,8 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2655,6 +4618,8 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2676,6 +4641,12 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" s="2" t="n">
+        <v>45959.47121527778</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45959.47121527778</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2697,6 +4668,8 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2718,6 +4691,8 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2739,6 +4714,8 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2760,6 +4737,8 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2781,6 +4760,8 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2802,6 +4783,12 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" s="2" t="n">
+        <v>45959.06054398148</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>45959.06054398148</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2823,6 +4810,8 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2844,6 +4833,8 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2865,6 +4856,8 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2886,6 +4879,8 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2907,6 +4902,8 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2928,6 +4925,8 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2949,6 +4948,8 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2970,6 +4971,8 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2991,6 +4994,8 @@
       <c r="E21" t="n">
         <v>0</v>
       </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3012,6 +5017,8 @@
       <c r="E22" t="n">
         <v>0</v>
       </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3033,6 +5040,8 @@
       <c r="E23" t="n">
         <v>0</v>
       </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3054,6 +5063,8 @@
       <c r="E24" t="n">
         <v>0</v>
       </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3075,6 +5086,8 @@
       <c r="E25" t="n">
         <v>0</v>
       </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3096,6 +5109,8 @@
       <c r="E26" t="n">
         <v>0</v>
       </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3117,6 +5132,8 @@
       <c r="E27" t="n">
         <v>0</v>
       </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3138,6 +5155,12 @@
       <c r="E28" t="n">
         <v>0</v>
       </c>
+      <c r="F28" s="2" t="n">
+        <v>45969.62359953704</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>45971.41180555556</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3159,6 +5182,8 @@
       <c r="E29" t="n">
         <v>0</v>
       </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3177,10 +5202,14 @@
       <c r="D30" t="n">
         <v>1</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>45974.1278125</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>45974.1278125</v>
       </c>
     </row>
     <row r="31">
@@ -3203,6 +5232,8 @@
       <c r="E31" t="n">
         <v>0</v>
       </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3224,6 +5255,8 @@
       <c r="E32" t="n">
         <v>0</v>
       </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3245,6 +5278,8 @@
       <c r="E33" t="n">
         <v>0</v>
       </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3266,6 +5301,8 @@
       <c r="E34" t="n">
         <v>0</v>
       </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3287,6 +5324,8 @@
       <c r="E35" t="n">
         <v>0</v>
       </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3308,6 +5347,8 @@
       <c r="E36" t="n">
         <v>0</v>
       </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3329,6 +5370,8 @@
       <c r="E37" t="n">
         <v>0</v>
       </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3350,6 +5393,8 @@
       <c r="E38" t="n">
         <v>0</v>
       </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3371,6 +5416,871 @@
       <c r="E39" t="n">
         <v>0</v>
       </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjCxPs/</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjXVkv/</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynj9uqF/</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjbfUp/</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjHRu3/</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjktgn/</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynj9YYK/</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSynjAG7C/</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSy8ENMRW/</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260808222758081/</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260808139424756/</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1260822012756702/</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1261357606036476/</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/1261357616036475/</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>45969.62359953704</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>45971.41180555556</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>45974.1278125</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>45974.1278125</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0iWSJqTLCzeTBgz7LSHbiDGqYbxC7cbhgfHGDVEt1r5CB8AwgjuV9xxtEwvQaZEGnl</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/848611304195556/</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/reel/1135439792045406/</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHeaGojC-y/</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQHeZ1LjOge/</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXX191jDIm/</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXXzQWDDZV/</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXX1g-jBg9/</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXaV3BjM4E/</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQMhtk1DGri/</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jdxAjP_x/</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jtyTjD2N/</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jvTNDGNb/</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Comentarios" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Resumen_Posts" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1246,7 +1245,7 @@
       <c r="H17" s="2" t="n">
         <v>45978.74142361111</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="2" t="n">
         <v>45978</v>
       </c>
       <c r="J17" t="inlineStr">
@@ -1254,10 +1253,8 @@
           <t>17:47:39</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K17" t="n">
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1275,7 +1272,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1289,21 +1286,35 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>0</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>45978.74142361111</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>45978</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>17:47:39</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1315,13 +1326,13 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0QG5uZHK6t2u2jD6S2vk4R1Mp3LYq6MHoUcypaSDSxz1vvr6EwJBRKMokyRzgriGul?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1335,12 +1346,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1361,13 +1372,13 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1381,12 +1392,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1407,13 +1418,13 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1427,12 +1438,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1453,13 +1464,13 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1473,35 +1484,21 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>El mejor Probiótico</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>45971.41180555556</v>
-      </c>
-      <c r="I22" s="3" t="n">
-        <v>45971</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>09:53:00</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1513,7 +1510,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico',</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1544,24 +1541,22 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Igual que los anteriores</t>
+          <t>El mejor Probiótico</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45969.86098379629</v>
-      </c>
-      <c r="I23" s="3" t="n">
-        <v>45969</v>
+        <v>45971.41180555556</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>45971</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>20:39:49</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>09:53:00</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1573,7 +1568,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anterio</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico',</t>
         </is>
       </c>
     </row>
@@ -1604,18 +1599,18 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
+          <t>El mejor Probiótico</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45969.62359953704</v>
+        <v>45971.41180555556</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>45969</v>
+        <v>45971</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>14:57:59</t>
+          <t>09:53:00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1633,13 +1628,13 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que Ase</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico',</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1653,19 +1648,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Igual que los anteriores</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45969.86098379629</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>45969</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>20:39:49</t>
+        </is>
+      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -1679,13 +1686,13 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anterio</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1699,29 +1706,29 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
+          <t>Igual que los anteriores</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45977.11752314815</v>
+        <v>45969.86098379629</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>45977</v>
+        <v>45969</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>02:49:14</t>
+          <t>20:39:49</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1739,13 +1746,13 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02HiUDTaxLSL8wAsf3TfV3f6Es7PudJTEM927MTFHUUZ5G4DjyveUhjHR7SLwHvZbzl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos </t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anterio</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1759,35 +1766,33 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Qeee titi dijo una amiga mía jejejeje</t>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45974.1278125</v>
-      </c>
-      <c r="I27" s="3" t="n">
-        <v>45974</v>
+        <v>45969.62359953704</v>
+      </c>
+      <c r="I27" s="2" t="n">
+        <v>45969</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>03:04:03</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>14:57:59</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1799,13 +1804,13 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02HiUDTaxLSL8wAsf3TfV3f6Es7PudJTEM927MTFHUUZ5G4DjyveUhjHR7SLwHvZbzl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una am</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que Ase</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1819,21 +1824,35 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0iWSJqTLCzeTBgz7LSHbiDGqYbxC7cbhgfHGDVEt1r5CB8AwgjuV9xxtEwvQaZEGnl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0iWSJqTLCzeTBgz7LSHbiDGqYbxC7cbhgfHGDVEt1r5CB8AwgjuV9xxtEwvQaZEGnl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>0</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>45969.62359953704</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>45969</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>14:57:59</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -1845,13 +1864,13 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0iWSJqTLCzeTBgz7LSHbiDGqYbxC7cbhgfHGDVEt1r5CB8AwgjuV9xxtEwvQaZEGnl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que Ase</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1865,12 +1884,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/848611304195556/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/848611304195556/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1891,13 +1910,13 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/reel/848611304195556/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1911,19 +1930,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1135439792045406/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1135439792045406/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>45977.11752314815</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>02:49:14</t>
+        </is>
+      </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
@@ -1937,17 +1968,17 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/reel/1135439792045406/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02HiUDTaxLSL8wAsf3TfV3f6Es7PudJTEM927MTFHUUZ5G4DjyveUhjHR7SLwHvZbzl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1957,21 +1988,35 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHeaGojC-y/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHeaGojC-y/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>0</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>45977.11752314815</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>45977</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>02:49:14</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -1979,25 +2024,21 @@
       <c r="M31" t="b">
         <v>0</v>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQHeaGojC-y/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02HiUDTaxLSL8wAsf3TfV3f6Es7PudJTEM927MTFHUUZ5G4DjyveUhjHR7SLwHvZbzl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2007,19 +2048,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>45974.1278125</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>03:04:03</t>
+        </is>
+      </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
@@ -2029,25 +2082,21 @@
       <c r="M32" t="b">
         <v>0</v>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQHedmRjHLo/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02HiUDTaxLSL8wAsf3TfV3f6Es7PudJTEM927MTFHUUZ5G4DjyveUhjHR7SLwHvZbzl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una am</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2057,21 +2106,35 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHeZ1LjOge/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHeZ1LjOge/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>0</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>45974.1278125</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>45974</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>03:04:03</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -2079,25 +2142,21 @@
       <c r="M33" t="b">
         <v>0</v>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQHeZ1LjOge/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02HiUDTaxLSL8wAsf3TfV3f6Es7PudJTEM927MTFHUUZ5G4DjyveUhjHR7SLwHvZbzl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una am</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2107,12 +2166,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXX191jDIm/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0iWSJqTLCzeTBgz7LSHbiDGqYbxC7cbhgfHGDVEt1r5CB8AwgjuV9xxtEwvQaZEGnl</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXX191jDIm/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0iWSJqTLCzeTBgz7LSHbiDGqYbxC7cbhgfHGDVEt1r5CB8AwgjuV9xxtEwvQaZEGnl</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2129,25 +2188,21 @@
       <c r="M34" t="b">
         <v>0</v>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQXX191jDIm/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0iWSJqTLCzeTBgz7LSHbiDGqYbxC7cbhgfHGDVEt1r5CB8AwgjuV9xxtEwvQaZEGnl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2157,12 +2212,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXXzQWDDZV/</t>
+          <t>https://www.facebook.com/reel/848611304195556/</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXXzQWDDZV/</t>
+          <t>https://www.facebook.com/reel/848611304195556/</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2179,25 +2234,21 @@
       <c r="M35" t="b">
         <v>0</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQXXzQWDDZV/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/reel/848611304195556/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2207,12 +2258,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXX1g-jBg9/</t>
+          <t>https://www.facebook.com/reel/1135439792045406/</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXX1g-jBg9/</t>
+          <t>https://www.facebook.com/reel/1135439792045406/</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2229,21 +2280,17 @@
       <c r="M36" t="b">
         <v>0</v>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQXX1g-jBg9/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/reel/1135439792045406/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2257,12 +2304,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXaV3BjM4E/</t>
+          <t>https://www.instagram.com/p/DQHeaGojC-y/</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXaV3BjM4E/</t>
+          <t>https://www.instagram.com/p/DQHeaGojC-y/</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2287,13 +2334,13 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQXaV3BjM4E/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DQHeaGojC-y/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2307,12 +2354,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQMhtk1DGri/</t>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQMhtk1DGri/</t>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2337,13 +2384,13 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQMhtk1DGri/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DQHedmRjHLo/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2357,12 +2404,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ9jdxAjP_x/</t>
+          <t>https://www.instagram.com/p/DQHeZ1LjOge/</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ9jdxAjP_x/</t>
+          <t>https://www.instagram.com/p/DQHeZ1LjOge/</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2387,13 +2434,13 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQ9jdxAjP_x/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DQHeZ1LjOge/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2407,12 +2454,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ9jtyTjD2N/</t>
+          <t>https://www.instagram.com/p/DQXX191jDIm/</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ9jtyTjD2N/</t>
+          <t>https://www.instagram.com/p/DQXX191jDIm/</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2437,13 +2484,13 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQ9jtyTjD2N/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DQXX191jDIm/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2457,12 +2504,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ9jvTNDGNb/</t>
+          <t>https://www.instagram.com/p/DQXXzQWDDZV/</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ9jvTNDGNb/</t>
+          <t>https://www.instagram.com/p/DQXXzQWDDZV/</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2487,934 +2534,401 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
+          <t>{'url': 'https://www.instagram.com/p/DQXXzQWDDZV/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>32</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXX1g-jBg9/</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXX1g-jBg9/</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQXX1g-jBg9/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXaV3BjM4E/</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXaV3BjM4E/</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQXaV3BjM4E/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>34</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQMhtk1DGri/</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQMhtk1DGri/</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQMhtk1DGri/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jdxAjP_x/</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jdxAjP_x/</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQ9jdxAjP_x/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jtyTjD2N/</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jtyTjD2N/</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQ9jtyTjD2N/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jvTNDGNb/</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jvTNDGNb/</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
           <t>{'url': 'https://www.instagram.com/p/DQ9jvTNDGNb/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>post_number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>platform</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>post_url</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Comentarios</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Likes</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Primera_Extraccion</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Ultima_Extraccion</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>tiktok</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSynjCxPs/</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>tiktok</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSynjXVkv/</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>tiktok</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSynj9uqF/</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>tiktok</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSynjbfUp/</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>tiktok</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSynjHRu3/</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>tiktok</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSynjktgn/</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>tiktok</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSynj9YYK/</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>tiktok</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSynjAG7C/</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>tiktok</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://vt.tiktok.com/ZSy8ENMRW/</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.facebook.com/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Facebook</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808222758081/</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808139424756/</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260822012756702/</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1261357606036476/</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/1261357616036475/</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>45978.74142361111</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>45978.74142361111</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>000</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>45969.62359953704</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>45971.41180555556</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>45974.1278125</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>45977.11752314815</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0iWSJqTLCzeTBgz7LSHbiDGqYbxC7cbhgfHGDVEt1r5CB8AwgjuV9xxtEwvQaZEGnl</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/848611304195556/</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/reel/1135439792045406/</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DQHeaGojC-y/</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DQHeZ1LjOge/</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DQXX191jDIm/</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DQXXzQWDDZV/</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DQXX1g-jBg9/</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DQXaV3BjM4E/</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DQMhtk1DGri/</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DQ9jdxAjP_x/</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DQ9jtyTjD2N/</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/DQ9jvTNDGNb/</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/1135439792045406/</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/1135439792045406/</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>{'inputUrl': 'https://www.facebook.com/1135439792045406/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -662,11 +662,11 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tiktok</t>
+          <t>TikTok</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -676,12 +676,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynjbfUp/</t>
+          <t>https://vt.tiktok.com/ZSynj9uqF/</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynjbfUp/</t>
+          <t>https://vt.tiktok.com/ZSynj9uqF/</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -698,17 +698,21 @@
       <c r="M5" t="b">
         <v>0</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>{'url': 'https://vt.tiktok.com/ZSynj9uqF/', 'error': 'Post not found or private.'}</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -722,12 +726,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynjHRu3/</t>
+          <t>https://vt.tiktok.com/ZSynjbfUp/</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynjHRu3/</t>
+          <t>https://vt.tiktok.com/ZSynjbfUp/</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -754,7 +758,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -768,12 +772,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynjktgn/</t>
+          <t>https://vt.tiktok.com/ZSynjHRu3/</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynjktgn/</t>
+          <t>https://vt.tiktok.com/ZSynjHRu3/</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -800,7 +804,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -814,12 +818,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynj9YYK/</t>
+          <t>https://vt.tiktok.com/ZSynjktgn/</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynj9YYK/</t>
+          <t>https://vt.tiktok.com/ZSynjktgn/</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -846,7 +850,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -860,12 +864,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynjAG7C/</t>
+          <t>https://vt.tiktok.com/ZSynj9YYK/</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSynjAG7C/</t>
+          <t>https://vt.tiktok.com/ZSynj9YYK/</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -892,7 +896,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -906,12 +910,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSy8ENMRW/</t>
+          <t>https://vt.tiktok.com/ZSynjAG7C/</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://vt.tiktok.com/ZSy8ENMRW/</t>
+          <t>https://vt.tiktok.com/ZSynjAG7C/</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -938,11 +942,11 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>tiktok</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -952,12 +956,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
+          <t>https://vt.tiktok.com/ZSy8ENMRW/</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
+          <t>https://vt.tiktok.com/ZSy8ENMRW/</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -975,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
-        </is>
-      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -998,12 +1002,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808222758081/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808222758081/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808236091413/</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1024,13 +1028,13 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1260808222758081/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1260808236091413/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1044,12 +1048,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808139424756/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808222758081/</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260808139424756/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808222758081/</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1070,13 +1074,13 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1260808139424756/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1260808222758081/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1090,12 +1094,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260822012756702/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808139424756/</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1260822012756702/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260808139424756/</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1116,13 +1120,13 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260822012756702/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.facebook.com/100064867445065/posts/1260808139424756/', 'error': 'not_available', 'errorDescription': "This content isn't available because the owner only shared it with a small group of people or changed who can see it, or it's been deleted."}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1136,12 +1140,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1261357606036476/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260822012756702/</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1261357606036476/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1260822012756702/</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1162,13 +1166,13 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1261357606036476/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1260822012756702/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1182,12 +1186,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1261357616036475/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1261357606036476/</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/1261357616036475/</t>
+          <t>https://www.facebook.com/100064867445065/posts/1261357606036476/</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1208,13 +1212,13 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1261357616036475/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1261357606036476/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1228,31 +1232,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
+          <t>https://www.facebook.com/100064867445065/posts/1261357616036475/</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
+          <t>https://www.facebook.com/100064867445065/posts/1261357616036475/</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>45978.74142361111</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>45978</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>17:47:39</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
         <v>0</v>
       </c>
@@ -1266,7 +1258,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0QG5uZHK6t2u2jD6S2vk4R1Mp3LYq6MHoUcypaSDSxz1vvr6EwJBRKMokyRzgriGul?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve </t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/1261357616036475/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1297,18 +1289,18 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
+          <t>Mucho viejo cacorro, vaya a llorar a la casa joda creen que con eso van a solucionar las cosas , ya es clavo pasao</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45978.74142361111</v>
+        <v>45980.47052083333</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>45978</v>
+        <v>45980</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17:47:39</t>
+          <t>11:17:33</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1326,13 +1318,13 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0QG5uZHK6t2u2jD6S2vk4R1Mp3LYq6MHoUcypaSDSxz1vvr6EwJBRKMokyRzgriGul?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve </t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02U7XcjxEvjUVdMPmUPkRbMzgvUFTGVtrt2dpwWza32RHnngNsM5fHkdUBaDuGDf9nl?comment_id=1148609350320027', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzExNDg2MDkzNTAzMjAwMjc=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xMTQ4NjA5MzUwMzIwMDI3', 'date': '2025-11-19T11:17:33.000Z', 'text': 'Mucho viejo cacorro,</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1346,19 +1338,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>45978.74142361111</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>17:47:39</t>
+        </is>
+      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -1372,13 +1376,13 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0QG5uZHK6t2u2jD6S2vk4R1Mp3LYq6MHoUcypaSDSxz1vvr6EwJBRKMokyRzgriGul?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1392,19 +1396,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>45978.74142361111</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>45978</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>17:47:39</t>
+        </is>
+      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -1418,13 +1434,13 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0QG5uZHK6t2u2jD6S2vk4R1Mp3LYq6MHoUcypaSDSxz1vvr6EwJBRKMokyRzgriGul?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1438,21 +1454,35 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>0</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Total el ke no sirve que no estorbe 🫩😁😁😁</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45978.74142361111</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>45978</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>17:47:39</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1464,13 +1494,13 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid023bwGRUTbkVJCm1VteAwQ4o8Z9qw6zAXw4B1XohbBQgxs1q2wygScrorq8oTK7ccYl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02U7XcjxEvjUVdMPmUPkRbMzgvUFTGVtrt2dpwWza32RHnngNsM5fHkdUBaDuGDf9nl?comment_id=1523281158961050', 'id': 'Y29tbWVudDoxMjc0MDA1NzQ4MTA0OTk1XzE1MjMyODExNTg5NjEwNTA=', 'feedbackId': 'ZmVlZGJhY2s6MTI3NDAwNTc0ODEwNDk5NV8xNTIzMjgxMTU4OTYxMDUw', 'date': '2025-11-17T17:47:39.000Z', 'text': 'Total el ke no sirve</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1484,12 +1514,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1510,13 +1540,13 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid029hT2ZWY4t8TUmLiLrJGj4Ris4NppCrZpRrzjEigT59GB1QDoFubpUtCD9nuevefWl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1530,31 +1560,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>El mejor Probiótico</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>45971.41180555556</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>45971</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>09:53:00</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
         <v>0</v>
       </c>
@@ -1568,13 +1586,13 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico',</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02BWQCsWUatN4ELYBsTsiGH58AsMR2R7guz8LGT3PHUmpXE2CVtis4pS1FYv6QmaQul', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1588,35 +1606,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>El mejor Probiótico</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>45971.41180555556</v>
-      </c>
-      <c r="I24" s="3" t="n">
-        <v>45971</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>09:53:00</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1628,13 +1632,13 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico',</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02PhkXpJn3DZ7gNSrftGSFV5KygNETAVZsrkikNhj1MyudCJAUvHaraAfN7igoh2nvl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1648,31 +1652,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Igual que los anteriores</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>45969.86098379629</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>45969</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>20:39:49</t>
-        </is>
-      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -1686,7 +1678,7 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anterio</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02XVfbLpzFXhmK2VTzR5GrmPAP75SERcqSHTdXidveFDKpwqbYcnt8e2DdTbHK5Srul', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
@@ -1717,24 +1709,22 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Igual que los anteriores</t>
+          <t>El mejor Probiótico</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45969.86098379629</v>
-      </c>
-      <c r="I26" s="3" t="n">
-        <v>45969</v>
+        <v>45971.41180555556</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>45971</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>20:39:49</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>09:53:00</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1746,7 +1736,7 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anterio</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico',</t>
         </is>
       </c>
     </row>
@@ -1777,18 +1767,18 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
+          <t>El mejor Probiótico</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45969.62359953704</v>
+        <v>45971.41180555556</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>45969</v>
+        <v>45971</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>14:57:59</t>
+          <t>09:53:00</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1804,7 +1794,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que Ase</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico',</t>
         </is>
       </c>
     </row>
@@ -1835,18 +1825,18 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
+          <t>El mejor Probiótico</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45969.62359953704</v>
+        <v>45971.41180555556</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>45969</v>
+        <v>45971</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>14:57:59</t>
+          <t>09:53:00</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1864,13 +1854,13 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que Ase</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=1220441243230897', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzEyMjA0NDEyNDMyMzA4OTc=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8xMjIwNDQxMjQzMjMwODk3', 'date': '2025-11-10T09:53:00.000Z', 'text': 'El mejor Probiótico'</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1884,19 +1874,31 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Igual que los anteriores</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>45969.86098379629</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>45969</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>20:39:49</t>
+        </is>
+      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
@@ -1910,13 +1912,13 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anterio</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1930,29 +1932,29 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
+          <t>Igual que los anteriores</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45977.11752314815</v>
+        <v>45969.86098379629</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>45977</v>
+        <v>45969</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>02:49:14</t>
+          <t>20:39:49</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -1968,13 +1970,13 @@
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02HiUDTaxLSL8wAsf3TfV3f6Es7PudJTEM927MTFHUUZ5G4DjyveUhjHR7SLwHvZbzl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos </t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anterio</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1988,29 +1990,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
+          <t>Igual que los anteriores</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45977.11752314815</v>
+        <v>45969.86098379629</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>45977</v>
+        <v>45969</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>02:49:14</t>
+          <t>20:39:49</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2028,13 +2030,13 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02HiUDTaxLSL8wAsf3TfV3f6Es7PudJTEM927MTFHUUZ5G4DjyveUhjHR7SLwHvZbzl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos </t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=2124276584648076', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzIxMjQyNzY1ODQ2NDgwNzY=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF8yMTI0Mjc2NTg0NjQ4MDc2', 'date': '2025-11-08T20:39:49.000Z', 'text': 'Igual que los anteri</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2048,29 +2050,29 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Qeee titi dijo una amiga mía jejejeje</t>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45974.1278125</v>
+        <v>45969.62359953704</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>45974</v>
+        <v>45969</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>03:04:03</t>
+          <t>14:57:59</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -2086,13 +2088,13 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02HiUDTaxLSL8wAsf3TfV3f6Es7PudJTEM927MTFHUUZ5G4DjyveUhjHR7SLwHvZbzl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una am</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que Ase</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2106,35 +2108,33 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Qeee titi dijo una amiga mía jejejeje</t>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45974.1278125</v>
-      </c>
-      <c r="I33" s="3" t="n">
-        <v>45974</v>
+        <v>45969.62359953704</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>45969</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>03:04:03</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>14:57:59</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -2146,13 +2146,13 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02HiUDTaxLSL8wAsf3TfV3f6Es7PudJTEM927MTFHUUZ5G4DjyveUhjHR7SLwHvZbzl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una am</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid05dETwUhcooiWtDpnKqw4gvQv63Qv4QVPdt2HcuhGECdKrH4sopW81ajKPh3Y7oeil?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que Ase</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2166,21 +2166,35 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0iWSJqTLCzeTBgz7LSHbiDGqYbxC7cbhgfHGDVEt1r5CB8AwgjuV9xxtEwvQaZEGnl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100064867445065/posts/pfbid0iWSJqTLCzeTBgz7LSHbiDGqYbxC7cbhgfHGDVEt1r5CB8AwgjuV9xxtEwvQaZEGnl</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>0</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Pues algo túvo que Aser le él cuando eya rrasiono así aver hombre cuando un hombre Caba con la vida dé una mujer poque ustedes no le dan tanta i portasia. Ihora sí sí los hombres cada rrato acaban con la vida dé la mujer entosse</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>45969.62359953704</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>45969</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>14:57:59</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2192,13 +2206,13 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0iWSJqTLCzeTBgz7LSHbiDGqYbxC7cbhgfHGDVEt1r5CB8AwgjuV9xxtEwvQaZEGnl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid02ycxCqjBJ6hEWoUQ4eRDjWPz28VVYpdfGsQ1aYmLcFuov7kYMFqoMCEDuqfMLVy2Sl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid029UgB89dSfDXVkGJuUxqEA54Br8nCUxmJg2NoyBx4HcJhGp9umWAskBUL619jDLYTl?comment_id=834542738933427', 'id': 'Y29tbWVudDoxMjY4NTk4OTE4NjQ1Njc4XzgzNDU0MjczODkzMzQyNw==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODkxODY0NTY3OF84MzQ1NDI3Mzg5MzM0Mjc=', 'date': '2025-11-08T14:57:59.000Z', 'text': 'Pues algo túvo que As</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2212,12 +2226,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/848611304195556/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/848611304195556/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2238,13 +2252,13 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/reel/848611304195556/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0J6JtaE3Wz43drqg4gG7thMV8QeAa3eKmDuQML3RjU1aYWXaTp6gjy8aTwoasLf35l', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2258,19 +2272,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1135439792045406/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/reel/1135439792045406/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>45977.11752314815</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>02:49:14</t>
+        </is>
+      </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
@@ -2284,17 +2310,17 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>{'inputUrl': 'https://www.facebook.com/reel/1135439792045406/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02HiUDTaxLSL8wAsf3TfV3f6Es7PudJTEM927MTFHUUZ5G4DjyveUhjHR7SLwHvZbzl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2304,19 +2330,31 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHeaGojC-y/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHeaGojC-y/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>45977.11752314815</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>45977</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>02:49:14</t>
+        </is>
+      </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
@@ -2326,25 +2364,21 @@
       <c r="M37" t="b">
         <v>0</v>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQHeaGojC-y/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t xml:space="preserve">{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02HiUDTaxLSL8wAsf3TfV3f6Es7PudJTEM927MTFHUUZ5G4DjyveUhjHR7SLwHvZbzl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2354,21 +2388,35 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>0</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Estoy de acuerdo unos se comen las verdes y otros las maduras</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>45977.11752314815</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>45977</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>02:49:14</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2376,25 +2424,21 @@
       <c r="M38" t="b">
         <v>0</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQHedmRjHLo/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EAq2YRKyazQTBigkoUr2bdpEG8aT2d8smWCqLMbFSRc1oe5FPKMEKJpHZhyM6wjQl?comment_id=847519371075258', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1Xzg0NzUxOTM3MTA3NTI1OA==', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV84NDc1MTkzNzEwNzUyNTg=', 'date': '2025-11-16T02:49:14.000Z', 'text': 'Estoy de acuerdo unos s</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2404,19 +2448,31 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHeZ1LjOge/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQHeZ1LjOge/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>45974.1278125</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>03:04:03</t>
+        </is>
+      </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
@@ -2426,25 +2482,21 @@
       <c r="M39" t="b">
         <v>0</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQHeZ1LjOge/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02HiUDTaxLSL8wAsf3TfV3f6Es7PudJTEM927MTFHUUZ5G4DjyveUhjHR7SLwHvZbzl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una am</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2454,19 +2506,31 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXX191jDIm/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXX191jDIm/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>45974.1278125</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>45974</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>03:04:03</t>
+        </is>
+      </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
@@ -2476,25 +2540,21 @@
       <c r="M40" t="b">
         <v>0</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQXX191jDIm/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid02HiUDTaxLSL8wAsf3TfV3f6Es7PudJTEM927MTFHUUZ5G4DjyveUhjHR7SLwHvZbzl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una am</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2504,21 +2564,35 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXXzQWDDZV/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXXzQWDDZV/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>0</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Qeee titi dijo una amiga mía jejejeje</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>45974.1278125</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>45974</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>03:04:03</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2526,25 +2600,21 @@
       <c r="M41" t="b">
         <v>0</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQXXzQWDDZV/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'facebookUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0MeAdgNbtFKofjnq5RvQ68RcSyXXbRFRTGQ4p8GaBKrnDKtCanp82NqNz8tEhZRoGl', 'commentUrl': 'https://www.facebook.com/alpina/posts/pfbid0EAq2YRKyazQTBigkoUr2bdpEG8aT2d8smWCqLMbFSRc1oe5FPKMEKJpHZhyM6wjQl?comment_id=1207180104642809', 'id': 'Y29tbWVudDoxMjY4NTk4NzgxOTc5MDI1XzEyMDcxODAxMDQ2NDI4MDk=', 'feedbackId': 'ZmVlZGJhY2s6MTI2ODU5ODc4MTk3OTAyNV8xMjA3MTgwMTA0NjQyODA5', 'date': '2025-11-13T03:04:03.000Z', 'text': 'Qeee titi dijo una ami</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2554,12 +2624,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXX1g-jBg9/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0iWSJqTLCzeTBgz7LSHbiDGqYbxC7cbhgfHGDVEt1r5CB8AwgjuV9xxtEwvQaZEGnl</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXX1g-jBg9/</t>
+          <t>https://www.facebook.com/100064867445065/posts/pfbid0iWSJqTLCzeTBgz7LSHbiDGqYbxC7cbhgfHGDVEt1r5CB8AwgjuV9xxtEwvQaZEGnl</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2576,25 +2646,21 @@
       <c r="M42" t="b">
         <v>0</v>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQXX1g-jBg9/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/100064867445065/posts/pfbid0iWSJqTLCzeTBgz7LSHbiDGqYbxC7cbhgfHGDVEt1r5CB8AwgjuV9xxtEwvQaZEGnl', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2604,12 +2670,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXaV3BjM4E/</t>
+          <t>https://www.facebook.com/reel/848611304195556/</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQXaV3BjM4E/</t>
+          <t>https://www.facebook.com/reel/848611304195556/</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2626,25 +2692,21 @@
       <c r="M43" t="b">
         <v>0</v>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQXaV3BjM4E/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/reel/848611304195556/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2654,12 +2716,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQMhtk1DGri/</t>
+          <t>https://www.facebook.com/reel/1135439792045406/</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQMhtk1DGri/</t>
+          <t>https://www.facebook.com/reel/1135439792045406/</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2676,21 +2738,17 @@
       <c r="M44" t="b">
         <v>0</v>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>https://instagram.com/</t>
-        </is>
-      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQMhtk1DGri/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'inputUrl': 'https://www.facebook.com/reel/1135439792045406/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2704,12 +2762,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ9jdxAjP_x/</t>
+          <t>https://www.instagram.com/p/DQHeaGojC-y/</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ9jdxAjP_x/</t>
+          <t>https://www.instagram.com/p/DQHeaGojC-y/</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2734,13 +2792,13 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQ9jdxAjP_x/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DQHeaGojC-y/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2754,12 +2812,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ9jtyTjD2N/</t>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ9jtyTjD2N/</t>
+          <t>https://www.instagram.com/p/DQHedmRjHLo/</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -2784,13 +2842,13 @@
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQ9jtyTjD2N/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DQHedmRjHLo/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2804,12 +2862,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ9jvTNDGNb/</t>
+          <t>https://www.instagram.com/p/DQHeZ1LjOge/</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DQ9jvTNDGNb/</t>
+          <t>https://www.instagram.com/p/DQHeZ1LjOge/</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -2834,17 +2892,17 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.instagram.com/p/DQ9jvTNDGNb/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DQHeZ1LjOge/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2854,12 +2912,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/</t>
+          <t>https://www.instagram.com/p/DQXX191jDIm/</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/</t>
+          <t>https://www.instagram.com/p/DQXX191jDIm/</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -2876,21 +2934,25 @@
       <c r="M48" t="b">
         <v>0</v>
       </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>{'url': 'https://www.facebook.com/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+          <t>{'url': 'https://www.instagram.com/p/DQXX191jDIm/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2900,12 +2962,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1135439792045406/</t>
+          <t>https://www.instagram.com/p/DQXXzQWDDZV/</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/1135439792045406/</t>
+          <t>https://www.instagram.com/p/DQXXzQWDDZV/</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -2922,9 +2984,405 @@
       <c r="M49" t="b">
         <v>0</v>
       </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQXXzQWDDZV/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>32</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXX1g-jBg9/</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXX1g-jBg9/</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQXX1g-jBg9/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>33</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXaV3BjM4E/</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQXaV3BjM4E/</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQXaV3BjM4E/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>34</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQMhtk1DGri/</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQMhtk1DGri/</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQMhtk1DGri/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jdxAjP_x/</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jdxAjP_x/</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQ9jdxAjP_x/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jtyTjD2N/</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jtyTjD2N/</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQ9jtyTjD2N/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jvTNDGNb/</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DQ9jvTNDGNb/</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>https://instagram.com/</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.instagram.com/p/DQ9jvTNDGNb/', 'requestErrorMessages': ['HTTP 200 undefined'], 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>38</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>{'url': 'https://www.facebook.com/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/1135439792045406/</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/1135439792045406/</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
         <is>
           <t>{'inputUrl': 'https://www.facebook.com/1135439792045406/', 'error': 'no_items', 'errorDescription': 'Empty or private data for provided input'}</t>
         </is>
